--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A90856-253B-46F4-9B64-19959B68FD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2905FC9-EE45-44F9-98E6-BB62FEE9DF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="168">
   <si>
     <t>Nombre</t>
   </si>
@@ -783,7 +783,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -878,11 +878,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -949,6 +958,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -976,12 +991,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1626,10 +1636,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P117"/>
+  <dimension ref="A2:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1687,34 +1697,34 @@
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="43">
-        <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71</f>
-        <v>49.2</v>
+      <c r="K3" s="49">
+        <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73</f>
+        <v>58.2</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="43"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="43"/>
+      <c r="K5" s="49"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -1734,11 +1744,11 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="45">
-        <f>F7+F13+F20+F43+F45+F47+F46</f>
+      <c r="K6" s="51">
+        <f>F7+F13+F20+F43+F45+F47+F46+J76</f>
         <v>31.5</v>
       </c>
       <c r="L6" s="2"/>
@@ -1760,8 +1770,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="51"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
@@ -1781,8 +1791,8 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
@@ -1802,10 +1812,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="51">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74</f>
         <v>58.52000000000001</v>
       </c>
@@ -1827,8 +1837,8 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="45"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -1845,8 +1855,8 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="45"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="51"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
@@ -1865,11 +1875,11 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="45">
-        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68</f>
+      <c r="K12" s="51">
+        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77</f>
         <v>36.6</v>
       </c>
     </row>
@@ -1888,8 +1898,8 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="45"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -1906,8 +1916,8 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="45"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="51"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -1924,12 +1934,12 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="45">
-        <f>F10+F16+F39+F40+F49+F50+F51</f>
-        <v>27</v>
+      <c r="K15" s="51">
+        <f>F10+F16+F39+F40+F49+F50+F51+J75</f>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1947,8 +1957,8 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="45"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="51"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -1965,8 +1975,8 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="45"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="51"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -1985,12 +1995,12 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="45">
-        <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+F79+F82+F81</f>
-        <v>23.25</v>
+      <c r="K18" s="51">
+        <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+F79+F82+F81+J78</f>
+        <v>30.25</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2011,8 +2021,8 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="45"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="51"/>
     </row>
     <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -2031,8 +2041,8 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="45"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="51"/>
     </row>
     <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -2069,11 +2079,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
     </row>
     <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2395,22 +2405,22 @@
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
     </row>
     <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
     </row>
     <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3082,14 +3092,14 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3101,12 +3111,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -3661,7 +3671,7 @@
       <c r="G104" s="11"/>
     </row>
     <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="51" t="s">
+      <c r="B105" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C105" s="34" t="s">
@@ -3677,7 +3687,7 @@
       <c r="G105" s="34"/>
     </row>
     <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="51" t="s">
+      <c r="B106" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="34" t="s">
@@ -3693,7 +3703,7 @@
       <c r="G106" s="34"/>
     </row>
     <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="51" t="s">
+      <c r="B107" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="34" t="s">
@@ -3711,7 +3721,7 @@
       <c r="G107" s="7"/>
     </row>
     <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="51" t="s">
+      <c r="B108" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C108" s="34" t="s">
@@ -3727,7 +3737,7 @@
       <c r="G108" s="34"/>
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="52" t="s">
+      <c r="B109" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C109" s="34" t="s">
@@ -3741,7 +3751,7 @@
       <c r="G109" s="34"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="53" t="s">
+      <c r="B110" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C110" s="34" t="s">
@@ -3755,7 +3765,7 @@
       <c r="G110" s="34"/>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="53" t="s">
+      <c r="B111" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C111" s="34" t="s">
@@ -3813,7 +3823,7 @@
       <c r="G114" s="34"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="54" t="s">
+      <c r="B115" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C115" s="34" t="s">
@@ -3829,7 +3839,7 @@
       <c r="G115" s="34"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="54" t="s">
+      <c r="B116" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C116" s="34" t="s">
@@ -3845,20 +3855,28 @@
       <c r="G116" s="34"/>
     </row>
     <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="54" t="s">
+      <c r="B117" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C117" s="55" t="s">
+      <c r="C117" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="D117" s="55"/>
-      <c r="E117" s="55">
+      <c r="D117" s="46"/>
+      <c r="E117" s="46">
         <v>0.5</v>
       </c>
-      <c r="F117" s="55">
+      <c r="F117" s="46">
         <v>0</v>
       </c>
-      <c r="G117" s="56"/>
+      <c r="G117" s="47"/>
+    </row>
+    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="57" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4845,6 +4863,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -5053,24 +5088,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5087,29 +5130,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2905FC9-EE45-44F9-98E6-BB62FEE9DF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3473C658-4A1B-49C4-9E2F-7D7C9A7CA821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -964,6 +964,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -991,7 +992,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1638,8 +1638,8 @@
   </sheetPr>
   <dimension ref="A2:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1693,38 +1693,38 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>238.36999999999998</v>
+        <v>239.36999999999998</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="49">
+      <c r="K3" s="50">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73</f>
         <v>58.2</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="49"/>
+      <c r="K5" s="50"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -1744,10 +1744,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="52">
         <f>F7+F13+F20+F43+F45+F47+F46+J76</f>
         <v>31.5</v>
       </c>
@@ -1770,8 +1770,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
@@ -1791,8 +1791,8 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
@@ -1812,10 +1812,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="52" t="s">
+      <c r="J9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="52">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74</f>
         <v>58.52000000000001</v>
       </c>
@@ -1837,8 +1837,8 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="51"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -1855,8 +1855,8 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="52"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
@@ -1875,10 +1875,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="53" t="s">
+      <c r="J12" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="52">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77</f>
         <v>36.6</v>
       </c>
@@ -1898,8 +1898,8 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="51"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="52"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -1916,8 +1916,8 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="51"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -1934,10 +1934,10 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="52">
         <f>F10+F16+F39+F40+F49+F50+F51+J75</f>
         <v>28</v>
       </c>
@@ -1957,8 +1957,8 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="51"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="52"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -1975,8 +1975,8 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="51"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -1995,10 +1995,10 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="55" t="s">
+      <c r="J18" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="51">
+      <c r="K18" s="52">
         <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+F79+F82+F81+J78</f>
         <v>30.25</v>
       </c>
@@ -2021,8 +2021,8 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="51"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="52"/>
     </row>
     <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -2041,8 +2041,8 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="51"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="52"/>
     </row>
     <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -2079,11 +2079,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="56" t="s">
+      <c r="J22" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
     </row>
     <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2405,22 +2405,22 @@
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3092,14 +3092,14 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="48" t="s">
+      <c r="B72" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3111,12 +3111,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -3733,8 +3733,10 @@
       <c r="E108" s="34">
         <v>2</v>
       </c>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
+      <c r="F108" s="34">
+        <v>1</v>
+      </c>
+      <c r="G108" s="7"/>
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="43" t="s">
@@ -3874,7 +3876,7 @@
       <c r="B118" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C118" s="57" t="s">
+      <c r="C118" s="48" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4863,23 +4865,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -5088,32 +5073,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5130,4 +5107,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3473C658-4A1B-49C4-9E2F-7D7C9A7CA821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C467AAD2-D5DE-4E84-9518-7087451A600E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1638,8 +1638,8 @@
   </sheetPr>
   <dimension ref="A2:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1693,13 +1693,13 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>239.36999999999998</v>
+        <v>240.11999999999998</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
       <c r="K3" s="50">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73</f>
-        <v>58.2</v>
+        <v>58.95</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="J73">
         <f>F74+F83+F91+F93+F94+F95</f>
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="K73">
         <f>E74+E83+E92+E93+E94+E95</f>
@@ -3507,8 +3507,10 @@
       <c r="E94" s="34">
         <v>1</v>
       </c>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
+      <c r="F94" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="G94" s="7"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
@@ -4865,6 +4867,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -5073,24 +5092,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5107,29 +5134,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC41902-2C23-4889-8160-89008A0DB4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F9DA52-055D-4F86-891F-C9D833ABF647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,7 +518,7 @@
     <t>Ajustes (pt. 2)</t>
   </si>
   <si>
-    <t>Mnesajes de victoria/Derrota/empate</t>
+    <t>Mensajes de victoria/Derrota/empate</t>
   </si>
 </sst>
 </file>
@@ -1556,8 +1556,8 @@
   </sheetPr>
   <dimension ref="A2:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>231.46999999999994</v>
+        <v>234.63999999999993</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="23"/>
@@ -1734,8 +1734,8 @@
         <v>13</v>
       </c>
       <c r="K9" s="46">
-        <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+F91+F80+F99+F101</f>
-        <v>61.420000000000009</v>
+        <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+F91+F80+F99+F101+F100</f>
+        <v>64.59</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -3058,8 +3058,8 @@
         <v>13</v>
       </c>
       <c r="J74">
-        <f>SUM(F91+F80+F99+F101)</f>
-        <v>15.7</v>
+        <f>SUM(F91+F80+F99+F101+F100)</f>
+        <v>18.869999999999997</v>
       </c>
       <c r="K74">
         <f>SUM(E80+E91+E99)</f>
@@ -3471,8 +3471,10 @@
       <c r="E100" s="1">
         <v>2</v>
       </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="27"/>
+      <c r="F100" s="1">
+        <v>3.17</v>
+      </c>
+      <c r="G100" s="11"/>
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
@@ -3490,7 +3492,7 @@
       <c r="F101" s="1">
         <v>2.5</v>
       </c>
-      <c r="G101" s="11"/>
+      <c r="G101" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F9DA52-055D-4F86-891F-C9D833ABF647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FD4461-3B00-4266-AE52-E12D2872766D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,18 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={96BFB097-130F-4FF8-8D67-2AB0D84D7421}</author>
+    <author>tc={DF52AA5C-B8EF-4813-B8A4-9D3D22ABB9F8}</author>
   </authors>
   <commentList>
-    <comment ref="C97" authorId="0" shapeId="0" xr:uid="{96BFB097-130F-4FF8-8D67-2AB0D84D7421}">
+    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{96BFB097-130F-4FF8-8D67-2AB0D84D7421}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+     (Un comando para instalar y otro para arrancar)</t>
+      </text>
+    </comment>
+    <comment ref="C99" authorId="1" shapeId="0" xr:uid="{DF52AA5C-B8EF-4813-B8A4-9D3D22ABB9F8}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="168">
   <si>
     <t>Nombre</t>
   </si>
@@ -317,9 +326,6 @@
     <t>Refactorizar Tragaperras</t>
   </si>
   <si>
-    <t>refactorizar codigo carta mas alta</t>
-  </si>
-  <si>
     <t>Cambiar alertas juego konguitorun</t>
   </si>
   <si>
@@ -497,19 +503,28 @@
     <t>Interfaz de ingreso/retiro monedas</t>
   </si>
   <si>
-    <t>Todos</t>
-  </si>
-  <si>
     <t>Mejora Compra Monedas Visual</t>
   </si>
   <si>
     <t>Arrancar la aplicación por cmd en una máquina vacía</t>
   </si>
   <si>
+    <t>;Mejora Interfaz venta/compra monedas</t>
+  </si>
+  <si>
     <t>Demo 1</t>
   </si>
   <si>
-    <t>Mejora Interfaz venta/compra monedas</t>
+    <t>Desplegar aplicación</t>
+  </si>
+  <si>
+    <t>NombreTrabajador</t>
+  </si>
+  <si>
+    <t>Refactorizar codigo carta mas alta</t>
+  </si>
+  <si>
+    <t>Refactor blackjack y dados craps</t>
   </si>
   <si>
     <t>herencia html toolbar</t>
@@ -518,7 +533,43 @@
     <t>Ajustes (pt. 2)</t>
   </si>
   <si>
-    <t>Mensajes de victoria/Derrota/empate</t>
+    <t>Mnesajes de victoria/Derrota/empate</t>
+  </si>
+  <si>
+    <t>Hacer un juego multijugador (continuación)</t>
+  </si>
+  <si>
+    <t>Rediseñar interfaz de cartas</t>
+  </si>
+  <si>
+    <t>Animación ruleta europea</t>
+  </si>
+  <si>
+    <t>Apuestas Ruleta</t>
+  </si>
+  <si>
+    <t>Terminar alertas interfaces</t>
+  </si>
+  <si>
+    <t>Interfaz cambio de contraseña</t>
+  </si>
+  <si>
+    <t>Ruleta Rusa</t>
+  </si>
+  <si>
+    <t>contacto cliente-casino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desafios y recompensa (BASE) </t>
+  </si>
+  <si>
+    <t>interfaz eventos especiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idiomas </t>
+  </si>
+  <si>
+    <t>boton de volumen</t>
   </si>
 </sst>
 </file>
@@ -673,12 +724,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="6"/>
       </patternFill>
@@ -731,8 +776,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF34A853"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -814,11 +865,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -847,7 +920,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,26 +928,26 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -885,7 +957,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -979,9 +1058,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4705</xdr:colOff>
+      <xdr:colOff>16770</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>9408</xdr:rowOff>
+      <xdr:rowOff>13218</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1042,7 +1121,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>9973</xdr:rowOff>
+      <xdr:rowOff>15688</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1101,9 +1180,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4704</xdr:colOff>
+      <xdr:colOff>16769</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>14325</xdr:rowOff>
+      <xdr:rowOff>11785</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1162,9 +1241,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4704</xdr:colOff>
+      <xdr:colOff>16769</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>5305</xdr:rowOff>
+      <xdr:rowOff>19275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1286,7 +1365,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>9451</xdr:rowOff>
+      <xdr:rowOff>13261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1543,7 +1622,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C97" dT="2023-10-19T08:57:35.81" personId="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" id="{96BFB097-130F-4FF8-8D67-2AB0D84D7421}">
+  <threadedComment ref="C98" dT="2023-10-19T08:57:35.81" personId="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" id="{96BFB097-130F-4FF8-8D67-2AB0D84D7421}">
+    <text xml:space="preserve"> (Un comando para instalar y otro para arrancar)</text>
+  </threadedComment>
+  <threadedComment ref="C99" dT="2023-10-19T08:57:35.81" personId="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" id="{DF52AA5C-B8EF-4813-B8A4-9D3D22ABB9F8}">
     <text xml:space="preserve"> (Un comando para instalar y otro para arrancar)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1554,10 +1636,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P101"/>
+  <dimension ref="A2:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:K14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1607,42 +1689,42 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E992)</f>
-        <v>182.5</v>
+        <v>226.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>234.63999999999993</v>
+        <v>246.18999999999994</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="44">
-        <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71</f>
-        <v>49.2</v>
+      <c r="J3" s="22"/>
+      <c r="K3" s="50">
+        <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73</f>
+        <v>58.95</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="J4" s="24" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="50"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -1662,11 +1744,11 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="46">
-        <f>F7+F13+F20+F43+F45+F47+F46</f>
+      <c r="K6" s="52">
+        <f>F7+F13+F20+F43+F45+F47+F46+J76</f>
         <v>31.5</v>
       </c>
       <c r="L6" s="2"/>
@@ -1688,8 +1770,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
@@ -1709,8 +1791,8 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
@@ -1730,11 +1812,11 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="46">
-        <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+F91+F80+F99+F101+F100</f>
+      <c r="K9" s="52">
+        <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74</f>
         <v>64.59</v>
       </c>
       <c r="L9" s="2"/>
@@ -1755,8 +1837,8 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="46"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -1773,8 +1855,8 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="46"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="52"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
@@ -1793,11 +1875,11 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="46">
-        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68</f>
+      <c r="K12" s="52">
+        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77</f>
         <v>36.6</v>
       </c>
     </row>
@@ -1816,8 +1898,8 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="46"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="52"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -1834,8 +1916,8 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="46"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -1852,12 +1934,12 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="46">
-        <f>F10+F16+F39+F40+F49+F50+F51</f>
-        <v>27</v>
+      <c r="K15" s="52">
+        <f>F10+F16+F39+F40+F49+F50+F51+J75</f>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1875,8 +1957,8 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="46"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="52"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -1893,8 +1975,8 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="46"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -1913,12 +1995,12 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="46">
-        <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+F79+F82+F81</f>
-        <v>23.25</v>
+      <c r="K18" s="52">
+        <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+F79+F82+F81+J78</f>
+        <v>30.25</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1939,8 +2021,8 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="46"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="52"/>
     </row>
     <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -1958,9 +2040,9 @@
       <c r="F20" s="1">
         <v>20</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="46"/>
+      <c r="G20" s="41"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="52"/>
     </row>
     <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -1997,11 +2079,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="51" t="s">
+      <c r="J22" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
     </row>
     <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2073,7 +2155,7 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="11"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
@@ -2091,7 +2173,7 @@
       <c r="F27" s="1">
         <v>1</v>
       </c>
-      <c r="G27" s="11"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
@@ -2145,7 +2227,7 @@
       <c r="F30" s="1">
         <v>24.07</v>
       </c>
-      <c r="G30" s="11"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
@@ -2161,7 +2243,7 @@
       <c r="F31" s="1">
         <v>1.5</v>
       </c>
-      <c r="G31" s="11"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2194,7 +2276,7 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="27"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
@@ -2212,7 +2294,7 @@
       <c r="F34" s="1">
         <v>14.6</v>
       </c>
-      <c r="G34" s="11"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
@@ -2230,7 +2312,7 @@
       <c r="F35" s="1">
         <v>1.5</v>
       </c>
-      <c r="G35" s="11"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
@@ -2248,7 +2330,7 @@
       <c r="F36" s="1">
         <v>0.5</v>
       </c>
-      <c r="G36" s="11"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
@@ -2260,7 +2342,7 @@
       <c r="D37" s="1">
         <v>33</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="25">
         <v>1.5</v>
       </c>
       <c r="F37" s="1">
@@ -2284,7 +2366,7 @@
       <c r="F38" s="1">
         <v>0.5</v>
       </c>
-      <c r="G38" s="11"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
@@ -2302,7 +2384,7 @@
       <c r="F39" s="1">
         <v>6.5</v>
       </c>
-      <c r="G39" s="11"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
@@ -2320,25 +2402,25 @@
       <c r="F40" s="1">
         <v>5.5</v>
       </c>
-      <c r="G40" s="11"/>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -2356,7 +2438,7 @@
       <c r="F43" s="1">
         <v>3</v>
       </c>
-      <c r="G43" s="11"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
@@ -2374,7 +2456,7 @@
       <c r="F44" s="1">
         <v>6.8</v>
       </c>
-      <c r="G44" s="11"/>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
@@ -2399,7 +2481,7 @@
         <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D46" s="1">
         <v>47</v>
@@ -2464,14 +2546,14 @@
       <c r="F49" s="1">
         <v>6</v>
       </c>
-      <c r="G49" s="22"/>
-      <c r="I49" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="J49" s="34" t="s">
+      <c r="G49" s="7"/>
+      <c r="I49" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="J49" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="K49" s="34" t="s">
+      <c r="K49" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2491,7 +2573,7 @@
       <c r="F50" s="1">
         <v>4.5</v>
       </c>
-      <c r="G50" s="22"/>
+      <c r="G50" s="7"/>
       <c r="I50" s="4" t="s">
         <v>9</v>
       </c>
@@ -2634,7 +2716,7 @@
       <c r="F55" s="1">
         <v>6.5</v>
       </c>
-      <c r="G55" s="11"/>
+      <c r="G55" s="7"/>
       <c r="I55" s="8" t="s">
         <v>14</v>
       </c>
@@ -2681,7 +2763,7 @@
       <c r="F57" s="1">
         <v>4</v>
       </c>
-      <c r="G57" s="11"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
@@ -2699,14 +2781,14 @@
       <c r="F58" s="1">
         <v>3</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="I58" s="34" t="s">
+      <c r="G58" s="7"/>
+      <c r="I58" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="J58" s="34" t="s">
+      <c r="J58" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="K58" s="34" t="s">
+      <c r="K58" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2755,7 +2837,7 @@
       <c r="F60" s="1">
         <v>0</v>
       </c>
-      <c r="G60" s="1"/>
+      <c r="G60" s="7"/>
       <c r="I60" s="6" t="s">
         <v>13</v>
       </c>
@@ -2953,7 +3035,7 @@
       <c r="F68" s="1">
         <v>0</v>
       </c>
-      <c r="G68" s="27"/>
+      <c r="G68" s="26"/>
     </row>
     <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
@@ -3010,33 +3092,41 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="I72" s="34" t="s">
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+      <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J72" s="34" t="s">
+      <c r="J72" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="K72" s="34" t="s">
+      <c r="K72" s="33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="J73">
+        <f>F74+F83+F91+F93+F94+F95</f>
+        <v>9.75</v>
+      </c>
+      <c r="K73">
+        <f>E74+E83+E92+E93+E94+E95</f>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3052,90 +3142,116 @@
       <c r="E74" s="1">
         <v>2</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="35"/>
+      <c r="F74" s="1">
+        <v>3</v>
+      </c>
+      <c r="G74" s="7"/>
       <c r="I74" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J74">
-        <f>SUM(F91+F80+F99+F101+F100)</f>
+        <f>F80+F91+F102+F104+F103</f>
         <v>18.869999999999997</v>
       </c>
       <c r="K74">
-        <f>SUM(E80+E91+E99)</f>
-        <v>8</v>
+        <f>E80+E91</f>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D75" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
+      <c r="D75" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
       <c r="I75" s="9" t="s">
         <v>15</v>
+      </c>
+      <c r="J75">
+        <f>F76+F77+F78+F88+F96+F101</f>
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <f>E76+E77+E78+E88+E96+E101</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
+      <c r="D76" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
       <c r="I76" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="J76">
+        <f>F75+F89+F90+F99+F100</f>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f>E75+E89+E90+E99+E100</f>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D77" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
+      <c r="D77" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
       <c r="I77" s="8" t="s">
         <v>14</v>
+      </c>
+      <c r="J77">
+        <f>F84+F85+F86+F87</f>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f>E84+E85+E86+E87</f>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
+      <c r="D78" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
       <c r="I78" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J78">
-        <f>F79+F81+F82</f>
-        <v>6</v>
+        <f>F79+F81+F82+F97</f>
+        <v>7</v>
       </c>
       <c r="K78">
         <f>E79+E82+E81</f>
@@ -3146,14 +3262,14 @@
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35">
+      <c r="D79" s="34"/>
+      <c r="E79" s="34">
         <v>6</v>
       </c>
-      <c r="F79" s="35">
+      <c r="F79" s="34">
         <v>4</v>
       </c>
       <c r="G79" s="11"/>
@@ -3162,14 +3278,14 @@
       <c r="B80" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35">
+      <c r="D80" s="34"/>
+      <c r="E80" s="34">
         <v>3</v>
       </c>
-      <c r="F80" s="35">
+      <c r="F80" s="34">
         <v>8.5</v>
       </c>
       <c r="G80" s="11"/>
@@ -3178,321 +3294,595 @@
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35">
+      <c r="D81" s="34"/>
+      <c r="E81" s="34">
         <v>3</v>
       </c>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D82" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="35">
+      <c r="D82" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="34">
         <v>3</v>
       </c>
-      <c r="F82" s="35">
+      <c r="F82" s="34">
         <v>2</v>
       </c>
-      <c r="G82" s="11"/>
+      <c r="G82" s="34"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D83" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="35">
+      <c r="D83" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="34">
         <v>1</v>
       </c>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
+      <c r="F83" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="G83" s="7"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D84" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
+      <c r="D84" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D85" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
+      <c r="D85" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C86" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
+      <c r="D86" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="37" t="s">
+      <c r="B87" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="38" t="s">
+      <c r="C87" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D87" s="38">
+      <c r="D87" s="37">
         <v>44</v>
       </c>
-      <c r="E87" s="38">
+      <c r="E87" s="37">
         <v>3</v>
       </c>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D89" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="35">
+      <c r="D89" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="34">
         <v>1</v>
       </c>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="C90" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D90" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="35">
+      <c r="D90" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="34">
         <v>2</v>
       </c>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C91" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D91" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="35">
-        <v>4</v>
-      </c>
-      <c r="F91" s="35">
+      <c r="C91" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D91" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34">
         <v>3.7</v>
       </c>
-      <c r="G91" s="11"/>
+      <c r="G91" s="34"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D92" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="35">
+      <c r="C92" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="34">
         <v>4</v>
       </c>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92" s="11"/>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D93" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="35">
+      <c r="C93" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="34">
         <v>1</v>
       </c>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
+      <c r="F93" s="34">
+        <v>2</v>
+      </c>
+      <c r="G93" s="7"/>
     </row>
     <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D94" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="35">
+      <c r="C94" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="34">
         <v>1</v>
       </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
+      <c r="F94" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="G94" s="7"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D95" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="35">
+      <c r="C95" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="34">
         <v>2</v>
       </c>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
+      <c r="C96" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" s="37">
+        <v>40</v>
+      </c>
+      <c r="E96" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="F96" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G96" s="7"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" s="37">
+        <v>40</v>
+      </c>
+      <c r="E97" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="F97" s="37">
+        <v>1</v>
+      </c>
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C97" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-    </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="5" t="s">
+      <c r="D98" s="37">
+        <v>48</v>
+      </c>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="11"/>
+    </row>
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-    </row>
-    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="6" t="s">
+      <c r="C99" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D99" s="37">
+        <v>48</v>
+      </c>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="11"/>
+    </row>
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+    </row>
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D101" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="F101" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35">
+      <c r="C102" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34">
         <v>1</v>
       </c>
-      <c r="F99" s="35">
+      <c r="F102" s="34">
         <v>1</v>
       </c>
-      <c r="G99" s="7"/>
-    </row>
-    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D100" s="1">
+      <c r="C103" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D103" s="1">
         <v>39</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E103" s="1">
         <v>2</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F103" s="1">
         <v>3.17</v>
       </c>
-      <c r="G100" s="11"/>
-    </row>
-    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="6" t="s">
+      <c r="G103" s="11"/>
+    </row>
+    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D101" s="1">
+      <c r="C104" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D104" s="1">
         <v>39</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E104" s="1">
         <v>1</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F104" s="1">
         <v>2.5</v>
       </c>
-      <c r="G101" s="7"/>
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="34">
+        <v>4</v>
+      </c>
+      <c r="F105" s="34"/>
+      <c r="G105" s="34"/>
+    </row>
+    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D106" s="34">
+        <v>24</v>
+      </c>
+      <c r="E106" s="34">
+        <v>15</v>
+      </c>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+    </row>
+    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D107" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="34">
+        <v>3</v>
+      </c>
+      <c r="F107" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D108" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="34">
+        <v>2</v>
+      </c>
+      <c r="F108" s="34">
+        <v>1</v>
+      </c>
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D109" s="34">
+        <v>23</v>
+      </c>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+    </row>
+    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="34"/>
+    </row>
+    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D111" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34"/>
+    </row>
+    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D112" s="37">
+        <v>29</v>
+      </c>
+      <c r="E112" s="37">
+        <v>10</v>
+      </c>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+    </row>
+    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D113" s="34">
+        <v>45</v>
+      </c>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+    </row>
+    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D114" s="34">
+        <v>10</v>
+      </c>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="34"/>
+    </row>
+    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D115" s="34">
+        <v>37</v>
+      </c>
+      <c r="E115" s="34">
+        <v>5</v>
+      </c>
+      <c r="F115" s="34"/>
+      <c r="G115" s="34"/>
+    </row>
+    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D116" s="34">
+        <v>12</v>
+      </c>
+      <c r="E116" s="34">
+        <v>7</v>
+      </c>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+    </row>
+    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D117" s="46"/>
+      <c r="E117" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F117" s="46">
+        <v>0</v>
+      </c>
+      <c r="G117" s="47"/>
+    </row>
+    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="48" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3525,14 +3915,14 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
     <col min="3" max="3" width="27.21875" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
@@ -3541,32 +3931,32 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="J1" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="K1" s="2">
         <f>SUM(B2:B1000)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3577,22 +3967,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="16">
         <v>1.5</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="28">
+        <v>45202</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="G2" s="29">
-        <v>45202</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="K2" s="2">
         <v>46</v>
@@ -3604,18 +3994,18 @@
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="16">
         <v>1.5</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="30">
+      <c r="G3" s="29">
         <v>45202</v>
       </c>
     </row>
@@ -3627,18 +4017,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="16">
         <v>5</v>
       </c>
       <c r="E4" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="30">
+      <c r="G4" s="29">
         <v>45202</v>
       </c>
     </row>
@@ -3648,11 +4038,11 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
@@ -3663,18 +4053,18 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="16">
         <v>40</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="28"/>
+        <v>108</v>
+      </c>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
@@ -3690,12 +4080,12 @@
         <v>5</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="33">
+        <v>109</v>
+      </c>
+      <c r="G7" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -3705,11 +4095,11 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
@@ -3728,12 +4118,12 @@
         <v>1.5</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="33">
+        <v>101</v>
+      </c>
+      <c r="G9" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -3743,11 +4133,11 @@
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
@@ -3758,11 +4148,11 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
@@ -3773,11 +4163,11 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
@@ -3788,11 +4178,11 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
@@ -3807,7 +4197,7 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
@@ -3818,11 +4208,11 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
@@ -3833,11 +4223,11 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
@@ -3848,11 +4238,11 @@
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
@@ -3863,18 +4253,18 @@
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="16">
         <v>3</v>
       </c>
       <c r="E18" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="33">
+      <c r="G18" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -3890,12 +4280,12 @@
         <v>3</v>
       </c>
       <c r="E19" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="33">
+      <c r="G19" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -3907,11 +4297,11 @@
         <v>1</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
@@ -3928,12 +4318,12 @@
         <v>2</v>
       </c>
       <c r="E21" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="33">
+      <c r="G21" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -3943,11 +4333,11 @@
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
@@ -3958,11 +4348,11 @@
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
@@ -3973,18 +4363,18 @@
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="16">
         <v>8</v>
       </c>
       <c r="E24" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="33">
+      <c r="G24" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -3994,11 +4384,11 @@
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
@@ -4017,12 +4407,12 @@
         <v>5</v>
       </c>
       <c r="E26" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="33">
+      <c r="G26" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4032,11 +4422,11 @@
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
@@ -4049,18 +4439,18 @@
         <v>1</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" s="16">
         <v>3</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="30">
+        <v>109</v>
+      </c>
+      <c r="G28" s="29">
         <v>45202</v>
       </c>
     </row>
@@ -4070,11 +4460,11 @@
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
@@ -4085,11 +4475,11 @@
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
@@ -4102,18 +4492,18 @@
         <v>1</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" s="16">
         <v>1</v>
       </c>
       <c r="E31" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="30">
+      <c r="G31" s="29">
         <v>45202</v>
       </c>
     </row>
@@ -4123,18 +4513,18 @@
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32" s="16">
         <v>7</v>
       </c>
       <c r="E32" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="33">
+      <c r="G32" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4144,18 +4534,18 @@
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" s="16">
         <v>0.5</v>
       </c>
       <c r="E33" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="33">
+      <c r="G33" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4171,12 +4561,12 @@
         <v>1.5</v>
       </c>
       <c r="E34" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="33">
+      <c r="G34" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4186,11 +4576,11 @@
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
@@ -4201,11 +4591,11 @@
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
@@ -4224,12 +4614,12 @@
         <v>1</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G37" s="31">
+        <v>101</v>
+      </c>
+      <c r="G37" s="30">
         <v>45216</v>
       </c>
     </row>
@@ -4239,11 +4629,11 @@
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
@@ -4254,11 +4644,11 @@
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
@@ -4269,18 +4659,18 @@
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D40" s="16">
         <v>3</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="33">
+        <v>109</v>
+      </c>
+      <c r="G40" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4288,20 +4678,22 @@
       <c r="A41" s="15">
         <v>40</v>
       </c>
-      <c r="B41" s="18"/>
+      <c r="B41" s="17">
+        <v>1</v>
+      </c>
       <c r="C41" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D41" s="16">
         <v>2</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" s="33">
+        <v>101</v>
+      </c>
+      <c r="G41" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4313,18 +4705,18 @@
         <v>1</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D42" s="16">
         <v>2</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42" s="33">
+        <v>109</v>
+      </c>
+      <c r="G42" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4336,18 +4728,18 @@
         <v>1</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" s="16">
         <v>3</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G43" s="33">
+        <v>109</v>
+      </c>
+      <c r="G43" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4359,18 +4751,18 @@
         <v>1</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="16">
         <v>0.5</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="33">
+        <v>101</v>
+      </c>
+      <c r="G44" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4380,18 +4772,18 @@
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="16">
         <v>1.5</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G45" s="33">
+        <v>109</v>
+      </c>
+      <c r="G45" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4401,11 +4793,11 @@
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
@@ -4416,18 +4808,18 @@
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="16">
         <v>2</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G47" s="32">
+        <v>109</v>
+      </c>
+      <c r="G47" s="31">
         <v>45216</v>
       </c>
     </row>
@@ -4439,24 +4831,37 @@
         <v>1</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="16">
         <v>2</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G48" s="32">
+        <v>108</v>
+      </c>
+      <c r="G48" s="31">
         <v>45216</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
-      <c r="C49" s="40"/>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="38">
+        <v>48</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="39">
+        <v>5</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4464,20 +4869,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4690,6 +5095,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -4702,14 +5115,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
     <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FD4461-3B00-4266-AE52-E12D2872766D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD7A7B5-0ABB-440F-AFDA-61EF6AA048BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,7 +655,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -776,12 +776,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF34A853"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -891,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -963,7 +957,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1638,8 +1631,8 @@
   </sheetPr>
   <dimension ref="A2:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1693,38 +1686,38 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>246.18999999999994</v>
+        <v>249.85999999999993</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="50">
+      <c r="K3" s="49">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73</f>
-        <v>58.95</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="50"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="50"/>
+      <c r="K5" s="49"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -1744,10 +1737,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="51">
         <f>F7+F13+F20+F43+F45+F47+F46+J76</f>
         <v>31.5</v>
       </c>
@@ -1770,8 +1763,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="51"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
@@ -1791,8 +1784,8 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
@@ -1812,12 +1805,12 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="51">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74</f>
-        <v>64.59</v>
+        <v>68.260000000000005</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1837,8 +1830,8 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -1855,8 +1848,8 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="51"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
@@ -1875,10 +1868,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="52">
+      <c r="K12" s="51">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77</f>
         <v>36.6</v>
       </c>
@@ -1898,8 +1891,8 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="52"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -1916,8 +1909,8 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="51"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -1934,10 +1927,10 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="51">
         <f>F10+F16+F39+F40+F49+F50+F51+J75</f>
         <v>28</v>
       </c>
@@ -1957,8 +1950,8 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="52"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="51"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -1975,8 +1968,8 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="52"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="51"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -1995,10 +1988,10 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="52">
+      <c r="K18" s="51">
         <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+F79+F82+F81+J78</f>
         <v>30.25</v>
       </c>
@@ -2021,8 +2014,8 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="52"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="51"/>
     </row>
     <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -2041,8 +2034,8 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="52"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="51"/>
     </row>
     <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -2079,11 +2072,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
     </row>
     <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2405,22 +2398,22 @@
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
     </row>
     <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
     </row>
     <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3092,14 +3085,14 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="49" t="s">
+      <c r="B72" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3111,18 +3104,18 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J73">
-        <f>F74+F83+F91+F93+F94+F95</f>
-        <v>9.75</v>
+        <f>F74+F83+F92+F93+F94+F95+F105+F106+F107+F108</f>
+        <v>9.5500000000000007</v>
       </c>
       <c r="K73">
         <f>E74+E83+E92+E93+E94+E95</f>
@@ -3150,8 +3143,8 @@
         <v>13</v>
       </c>
       <c r="J74">
-        <f>F80+F91+F102+F104+F103</f>
-        <v>18.869999999999997</v>
+        <f>F80+F91+F102+F104+F103+F115+F116+F117</f>
+        <v>22.54</v>
       </c>
       <c r="K74">
         <f>E80+E91</f>
@@ -3320,7 +3313,7 @@
       <c r="F82" s="34">
         <v>2</v>
       </c>
-      <c r="G82" s="34"/>
+      <c r="G82" s="11"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
@@ -3454,9 +3447,9 @@
       </c>
       <c r="E91" s="34"/>
       <c r="F91" s="34">
-        <v>3.7</v>
-      </c>
-      <c r="G91" s="34"/>
+        <v>4.2</v>
+      </c>
+      <c r="G91" s="11"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
@@ -3634,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="34">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G102" s="7"/>
     </row>
@@ -3652,7 +3645,7 @@
         <v>2</v>
       </c>
       <c r="F103" s="1">
-        <v>3.17</v>
+        <v>4.17</v>
       </c>
       <c r="G103" s="11"/>
     </row>
@@ -3857,8 +3850,10 @@
       <c r="E116" s="34">
         <v>7</v>
       </c>
-      <c r="F116" s="34"/>
-      <c r="G116" s="34"/>
+      <c r="F116" s="34">
+        <v>0.17</v>
+      </c>
+      <c r="G116" s="11"/>
     </row>
     <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="45" t="s">
@@ -3872,15 +3867,15 @@
         <v>0.5</v>
       </c>
       <c r="F117" s="46">
-        <v>0</v>
-      </c>
-      <c r="G117" s="47"/>
+        <v>1.5</v>
+      </c>
+      <c r="G117" s="11"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C118" s="48" t="s">
+      <c r="C118" s="47" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4878,14 +4873,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -5094,6 +5081,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
@@ -5103,23 +5098,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5136,4 +5114,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD7A7B5-0ABB-440F-AFDA-61EF6AA048BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C6D448-5CC7-419A-A102-F2A3178A012A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="170">
   <si>
     <t>Nombre</t>
   </si>
@@ -570,6 +570,12 @@
   </si>
   <si>
     <t>boton de volumen</t>
+  </si>
+  <si>
+    <t>Hacer cartel + frontal blackjack</t>
+  </si>
+  <si>
+    <t>TDD konguitorun</t>
   </si>
 </sst>
 </file>
@@ -655,7 +661,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -776,6 +782,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -885,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -985,6 +997,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,7 +1066,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>16770</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>13218</xdr:rowOff>
+      <xdr:rowOff>10043</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1114,7 +1127,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>15688</xdr:rowOff>
+      <xdr:rowOff>12513</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1175,7 +1188,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>16769</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>11785</xdr:rowOff>
+      <xdr:rowOff>8610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1358,7 +1371,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>13261</xdr:rowOff>
+      <xdr:rowOff>10086</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1629,22 +1642,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P118"/>
+  <dimension ref="A2:P120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.21875" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.77734375" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1796875" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.81640625" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1673,7 +1686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1682,20 +1695,20 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E992)</f>
-        <v>226.2</v>
+        <v>232.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>249.85999999999993</v>
+        <v>251.35999999999993</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
       <c r="K3" s="49">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73</f>
-        <v>58.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="48" t="s">
         <v>8</v>
       </c>
@@ -1709,7 +1722,7 @@
       </c>
       <c r="K4" s="49"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -2017,7 +2030,7 @@
       <c r="J19" s="55"/>
       <c r="K19" s="51"/>
     </row>
-    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2037,7 +2050,7 @@
       <c r="J20" s="55"/>
       <c r="K20" s="51"/>
     </row>
-    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2055,7 +2068,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2078,7 +2091,7 @@
       <c r="K22" s="56"/>
       <c r="L22" s="56"/>
     </row>
-    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2096,7 +2109,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2114,7 +2127,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2132,7 +2145,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2150,7 +2163,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2168,7 +2181,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2186,7 +2199,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2204,7 +2217,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2222,7 +2235,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2239,7 +2252,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2257,7 +2270,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2271,7 +2284,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2289,7 +2302,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2307,7 +2320,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2325,7 +2338,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2343,7 +2356,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2361,7 +2374,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2379,7 +2392,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2397,7 +2410,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B41" s="48" t="s">
         <v>36</v>
       </c>
@@ -2407,7 +2420,7 @@
       <c r="F41" s="48"/>
       <c r="G41" s="48"/>
     </row>
-    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
       <c r="D42" s="48"/>
@@ -2415,7 +2428,7 @@
       <c r="F42" s="48"/>
       <c r="G42" s="48"/>
     </row>
-    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2433,7 +2446,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2451,7 +2464,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -2469,7 +2482,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2487,7 +2500,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -2505,7 +2518,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -2523,7 +2536,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -2550,7 +2563,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -2579,7 +2592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -2608,7 +2621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -2637,7 +2650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -2666,7 +2679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -2695,7 +2708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2722,7 +2735,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -2740,7 +2753,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -2758,7 +2771,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -2785,7 +2798,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2814,7 +2827,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -2843,7 +2856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3114,8 +3127,8 @@
         <v>9</v>
       </c>
       <c r="J73">
-        <f>F74+F83+F92+F93+F94+F95+F105+F106+F107+F108</f>
-        <v>9.5500000000000007</v>
+        <f>F74+F83+F92+F93+F94+F95+F105+F106+F107+F108+F119+F120</f>
+        <v>11.05</v>
       </c>
       <c r="K73">
         <f>E74+E83+E92+E93+E94+E95</f>
@@ -3347,7 +3360,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -3487,7 +3500,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -3878,6 +3891,40 @@
       <c r="C118" s="47" t="s">
         <v>125</v>
       </c>
+    </row>
+    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D119" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="34">
+        <v>2</v>
+      </c>
+      <c r="F119" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="G119" s="7"/>
+    </row>
+    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D120" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="34">
+        <v>4</v>
+      </c>
+      <c r="F120" s="34"/>
+      <c r="G120" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3914,13 +3961,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3983,7 +4030,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -4004,7 +4051,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -4242,7 +4289,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -4263,7 +4310,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -4284,7 +4331,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -4301,7 +4348,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -4322,7 +4369,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -4337,7 +4384,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -4352,7 +4399,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -4373,7 +4420,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -4388,7 +4435,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -4411,7 +4458,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -4426,7 +4473,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -4449,7 +4496,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -4464,7 +4511,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -4479,7 +4526,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -4502,7 +4549,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -4523,7 +4570,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -4544,7 +4591,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -4565,7 +4612,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -4580,7 +4627,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -4595,7 +4642,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -4618,7 +4665,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -4633,7 +4680,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -4648,7 +4695,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -4669,7 +4716,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -4692,7 +4739,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -4715,7 +4762,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -4738,7 +4785,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -4761,7 +4808,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -4782,7 +4829,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -4797,7 +4844,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -4864,12 +4911,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5082,17 +5128,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5117,18 +5173,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C6D448-5CC7-419A-A102-F2A3178A012A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F50CFB-F1F5-4B98-A7EE-B5F3BACCF044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,6 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -997,7 +998,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1644,8 +1644,8 @@
   </sheetPr>
   <dimension ref="A2:P120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1699,38 +1699,38 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>251.35999999999993</v>
+        <v>255.35999999999993</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="49">
+      <c r="K3" s="50">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73</f>
-        <v>60.25</v>
+        <v>64.25</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="49"/>
+      <c r="K5" s="50"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -1750,10 +1750,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="52">
         <f>F7+F13+F20+F43+F45+F47+F46+J76</f>
         <v>31.5</v>
       </c>
@@ -1776,8 +1776,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
@@ -1797,8 +1797,8 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
@@ -1818,10 +1818,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="52" t="s">
+      <c r="J9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="52">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74</f>
         <v>68.260000000000005</v>
       </c>
@@ -1843,8 +1843,8 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="51"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -1861,8 +1861,8 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="52"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
@@ -1881,10 +1881,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="53" t="s">
+      <c r="J12" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="52">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77</f>
         <v>36.6</v>
       </c>
@@ -1904,8 +1904,8 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="51"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="52"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -1922,8 +1922,8 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="51"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -1940,10 +1940,10 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="52">
         <f>F10+F16+F39+F40+F49+F50+F51+J75</f>
         <v>28</v>
       </c>
@@ -1963,8 +1963,8 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="51"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="52"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -1981,8 +1981,8 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="51"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -2001,10 +2001,10 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="55" t="s">
+      <c r="J18" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="51">
+      <c r="K18" s="52">
         <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+F79+F82+F81+J78</f>
         <v>30.25</v>
       </c>
@@ -2027,8 +2027,8 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="51"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="52"/>
     </row>
     <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -2047,8 +2047,8 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="51"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="52"/>
     </row>
     <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -2085,11 +2085,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="56" t="s">
+      <c r="J22" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
     </row>
     <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2411,22 +2411,22 @@
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3098,14 +3098,14 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="48" t="s">
+      <c r="B72" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3117,18 +3117,18 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J73">
         <f>F74+F83+F92+F93+F94+F95+F105+F106+F107+F108+F119+F120</f>
-        <v>11.05</v>
+        <v>15.05</v>
       </c>
       <c r="K73">
         <f>E74+E83+E92+E93+E94+E95</f>
@@ -3531,8 +3531,10 @@
       <c r="E95" s="34">
         <v>2</v>
       </c>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
+      <c r="F95" s="34">
+        <v>4</v>
+      </c>
+      <c r="G95" s="7"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="40" t="s">
@@ -3924,7 +3926,7 @@
         <v>4</v>
       </c>
       <c r="F120" s="34"/>
-      <c r="G120" s="57"/>
+      <c r="G120" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4911,11 +4913,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5128,27 +5131,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5173,9 +5166,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F50CFB-F1F5-4B98-A7EE-B5F3BACCF044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F785CB92-20E9-44DD-858B-F3B27EA2B247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1644,20 +1644,20 @@
   </sheetPr>
   <dimension ref="A2:P120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1796875" customWidth="1"/>
-    <col min="11" max="11" width="35.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.81640625" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="12" max="12" width="26.77734375" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,7 +1686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1695,11 +1695,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E992)</f>
-        <v>232.2</v>
+        <v>238.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>255.35999999999993</v>
+        <v>260.35999999999996</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -1708,7 +1708,7 @@
         <v>64.25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="49" t="s">
         <v>8</v>
       </c>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="K9" s="52">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74</f>
-        <v>68.260000000000005</v>
+        <v>73.260000000000005</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2030,7 +2030,7 @@
       <c r="J19" s="56"/>
       <c r="K19" s="52"/>
     </row>
-    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="J20" s="56"/>
       <c r="K20" s="52"/>
     </row>
-    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="K22" s="57"/>
       <c r="L22" s="57"/>
     </row>
-    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2252,7 +2252,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2284,7 +2284,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="49" t="s">
         <v>36</v>
       </c>
@@ -2420,7 +2420,7 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
     </row>
-    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="49"/>
       <c r="C42" s="49"/>
       <c r="D42" s="49"/>
@@ -2428,7 +2428,7 @@
       <c r="F42" s="49"/>
       <c r="G42" s="49"/>
     </row>
-    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3157,11 +3157,11 @@
       </c>
       <c r="J74">
         <f>F80+F91+F102+F104+F103+F115+F116+F117</f>
-        <v>22.54</v>
+        <v>27.54</v>
       </c>
       <c r="K74">
-        <f>E80+E91</f>
-        <v>3</v>
+        <f>E80+E91+E102+E103+E104+E115+E116+E117</f>
+        <v>25.5</v>
       </c>
     </row>
     <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3360,7 +3360,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -3458,7 +3458,9 @@
       <c r="D91" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E91" s="34"/>
+      <c r="E91" s="34">
+        <v>6</v>
+      </c>
       <c r="F91" s="34">
         <v>4.2</v>
       </c>
@@ -3500,7 +3502,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -3849,8 +3851,10 @@
       <c r="E115" s="34">
         <v>5</v>
       </c>
-      <c r="F115" s="34"/>
-      <c r="G115" s="34"/>
+      <c r="F115" s="34">
+        <v>5</v>
+      </c>
+      <c r="G115" s="11"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="45" t="s">
@@ -3963,13 +3967,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4032,7 +4036,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -4053,7 +4057,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -4291,7 +4295,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -4312,7 +4316,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -4333,7 +4337,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -4350,7 +4354,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -4371,7 +4375,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -4386,7 +4390,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -4401,7 +4405,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -4422,7 +4426,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -4437,7 +4441,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -4460,7 +4464,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -4475,7 +4479,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -4498,7 +4502,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -4513,7 +4517,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -4528,7 +4532,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -4551,7 +4555,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -4572,7 +4576,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -4593,7 +4597,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -4614,7 +4618,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -4629,7 +4633,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -4644,7 +4648,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -4667,7 +4671,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -4682,7 +4686,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -4697,7 +4701,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -4718,7 +4722,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -4741,7 +4745,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -4764,7 +4768,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -4787,7 +4791,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -4810,7 +4814,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -4831,7 +4835,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -4846,7 +4850,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -4913,15 +4917,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -5130,6 +5125,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5139,14 +5143,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5161,6 +5157,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F785CB92-20E9-44DD-858B-F3B27EA2B247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0A0FA8-C2C6-4A5F-B513-96E977F268C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="173">
   <si>
     <t>Nombre</t>
   </si>
@@ -576,6 +576,15 @@
   </si>
   <si>
     <t>TDD konguitorun</t>
+  </si>
+  <si>
+    <t>Investigar sobre AJAX</t>
+  </si>
+  <si>
+    <t>Investigar/Ver tutoriales sobre socket programming</t>
+  </si>
+  <si>
+    <t>Investigar /Ver tutoriales de hosting</t>
   </si>
 </sst>
 </file>
@@ -1642,22 +1651,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P120"/>
+  <dimension ref="A2:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.21875" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.77734375" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1796875" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.81640625" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,7 +1695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1694,21 +1703,21 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:F3" si="0">SUM(E6:E992)</f>
+        <f t="shared" ref="E3:F3" si="0">SUM(E6:E995)</f>
         <v>238.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>260.35999999999996</v>
+        <v>276.85999999999996</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
       <c r="K3" s="50">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73</f>
-        <v>64.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="49" t="s">
         <v>8</v>
       </c>
@@ -1722,7 +1731,7 @@
       </c>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -2030,7 +2039,7 @@
       <c r="J19" s="56"/>
       <c r="K19" s="52"/>
     </row>
-    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2050,7 +2059,7 @@
       <c r="J20" s="56"/>
       <c r="K20" s="52"/>
     </row>
-    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2068,7 +2077,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2091,7 +2100,7 @@
       <c r="K22" s="57"/>
       <c r="L22" s="57"/>
     </row>
-    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2109,7 +2118,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2127,7 +2136,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2145,7 +2154,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2163,7 +2172,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2181,7 +2190,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2199,7 +2208,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2217,7 +2226,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2235,7 +2244,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2252,7 +2261,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2270,7 +2279,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2284,7 +2293,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2302,7 +2311,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2320,7 +2329,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2338,7 +2347,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2356,7 +2365,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2374,7 +2383,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2392,7 +2401,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2410,7 +2419,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B41" s="49" t="s">
         <v>36</v>
       </c>
@@ -2420,7 +2429,7 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
     </row>
-    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B42" s="49"/>
       <c r="C42" s="49"/>
       <c r="D42" s="49"/>
@@ -2428,7 +2437,7 @@
       <c r="F42" s="49"/>
       <c r="G42" s="49"/>
     </row>
-    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2446,7 +2455,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2464,7 +2473,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -2482,7 +2491,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2500,7 +2509,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -2518,7 +2527,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -2536,7 +2545,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -2563,7 +2572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -2592,7 +2601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -2621,7 +2630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -2650,7 +2659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -2679,7 +2688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -2708,7 +2717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2735,7 +2744,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -2753,7 +2762,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -2771,7 +2780,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -2798,7 +2807,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2827,7 +2836,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -2856,7 +2865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3127,8 +3136,8 @@
         <v>9</v>
       </c>
       <c r="J73">
-        <f>F74+F83+F92+F93+F94+F95+F105+F106+F107+F108+F119+F120</f>
-        <v>15.05</v>
+        <f>F74+F83+F92+F93+F94+F95+F108+F109+F110+F111+F122+F123+F105+F106+F107</f>
+        <v>31.55</v>
       </c>
       <c r="K73">
         <f>E74+E83+E92+E93+E94+E95</f>
@@ -3156,11 +3165,11 @@
         <v>13</v>
       </c>
       <c r="J74">
-        <f>F80+F91+F102+F104+F103+F115+F116+F117</f>
+        <f>F80+F91+F102+F104+F103+F118+F119+F120</f>
         <v>27.54</v>
       </c>
       <c r="K74">
-        <f>E80+E91+E102+E103+E104+E115+E116+E117</f>
+        <f>E80+E91+E102+E103+E104+E118+E119+E120</f>
         <v>25.5</v>
       </c>
     </row>
@@ -3360,7 +3369,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -3502,7 +3511,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -3697,40 +3706,44 @@
       <c r="E105" s="34">
         <v>4</v>
       </c>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
+      <c r="F105" s="34">
+        <v>10</v>
+      </c>
+      <c r="G105" s="7"/>
     </row>
     <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D106" s="34">
-        <v>24</v>
+        <v>172</v>
+      </c>
+      <c r="D106" s="34" t="s">
+        <v>11</v>
       </c>
       <c r="E106" s="34">
-        <v>15</v>
-      </c>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="34">
+        <v>2.5</v>
+      </c>
+      <c r="G106" s="7"/>
     </row>
     <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D107" s="34" t="s">
         <v>11</v>
       </c>
       <c r="E107" s="34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F107" s="34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G107" s="7"/>
     </row>
@@ -3739,198 +3752,250 @@
         <v>9</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D108" s="34" t="s">
         <v>11</v>
       </c>
       <c r="E108" s="34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F108" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G108" s="7"/>
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="43" t="s">
-        <v>14</v>
+      <c r="B109" s="42" t="s">
+        <v>9</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="D109" s="34">
-        <v>23</v>
-      </c>
-      <c r="E109" s="34"/>
+        <v>24</v>
+      </c>
+      <c r="E109" s="34">
+        <v>15</v>
+      </c>
       <c r="F109" s="34"/>
       <c r="G109" s="34"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="44" t="s">
+      <c r="B110" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="34">
+        <v>3</v>
+      </c>
+      <c r="F110" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G110" s="7"/>
+    </row>
+    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D111" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="34">
+        <v>2</v>
+      </c>
+      <c r="F111" s="34">
+        <v>1</v>
+      </c>
+      <c r="G111" s="7"/>
+    </row>
+    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="C112" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D112" s="34">
+        <v>23</v>
+      </c>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+    </row>
+    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D110" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-    </row>
-    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C111" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="D111" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-    </row>
-    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="D112" s="37">
-        <v>29</v>
-      </c>
-      <c r="E112" s="37">
-        <v>10</v>
-      </c>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
-    </row>
-    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="D113" s="34">
-        <v>45</v>
+      <c r="D113" s="34" t="s">
+        <v>11</v>
       </c>
       <c r="E113" s="34"/>
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="5" t="s">
-        <v>12</v>
+      <c r="B114" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="D114" s="34">
-        <v>10</v>
+        <v>161</v>
+      </c>
+      <c r="D114" s="34" t="s">
+        <v>11</v>
       </c>
       <c r="E114" s="34"/>
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="45" t="s">
+      <c r="B115" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D115" s="37">
+        <v>29</v>
+      </c>
+      <c r="E115" s="37">
+        <v>10</v>
+      </c>
+      <c r="F115" s="37"/>
+      <c r="G115" s="37"/>
+    </row>
+    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D116" s="34">
+        <v>45</v>
+      </c>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+    </row>
+    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D117" s="34">
+        <v>10</v>
+      </c>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+    </row>
+    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C115" s="34" t="s">
+      <c r="C118" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D115" s="34">
+      <c r="D118" s="34">
         <v>37</v>
       </c>
-      <c r="E115" s="34">
+      <c r="E118" s="34">
         <v>5</v>
       </c>
-      <c r="F115" s="34">
+      <c r="F118" s="34">
         <v>5</v>
       </c>
-      <c r="G115" s="11"/>
-    </row>
-    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="45" t="s">
+      <c r="G118" s="11"/>
+    </row>
+    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C116" s="34" t="s">
+      <c r="C119" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="D116" s="34">
+      <c r="D119" s="34">
         <v>12</v>
       </c>
-      <c r="E116" s="34">
+      <c r="E119" s="34">
         <v>7</v>
       </c>
-      <c r="F116" s="34">
+      <c r="F119" s="34">
         <v>0.17</v>
       </c>
-      <c r="G116" s="11"/>
-    </row>
-    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="45" t="s">
+      <c r="G119" s="11"/>
+    </row>
+    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C117" s="46" t="s">
+      <c r="C120" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="D117" s="46"/>
-      <c r="E117" s="46">
+      <c r="D120" s="46"/>
+      <c r="E120" s="46">
         <v>0.5</v>
       </c>
-      <c r="F117" s="46">
+      <c r="F120" s="46">
         <v>1.5</v>
       </c>
-      <c r="G117" s="11"/>
-    </row>
-    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="10" t="s">
+      <c r="G120" s="11"/>
+    </row>
+    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C118" s="47" t="s">
+      <c r="C121" s="47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="4" t="s">
+    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="34" t="s">
+      <c r="C122" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D119" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="34">
+      <c r="D122" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="34">
         <v>2</v>
       </c>
-      <c r="F119" s="34">
+      <c r="F122" s="34">
         <v>1.5</v>
       </c>
-      <c r="G119" s="7"/>
-    </row>
-    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="4" t="s">
+      <c r="G122" s="7"/>
+    </row>
+    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="34" t="s">
+      <c r="C123" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="D120" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" s="34">
+      <c r="D123" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="34">
         <v>4</v>
       </c>
-      <c r="F120" s="34"/>
-      <c r="G120" s="48"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3967,13 +4032,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4036,7 +4101,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -4057,7 +4122,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -4295,7 +4360,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -4316,7 +4381,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -4337,7 +4402,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -4354,7 +4419,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -4375,7 +4440,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -4390,7 +4455,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -4405,7 +4470,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -4426,7 +4491,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -4441,7 +4506,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -4464,7 +4529,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -4479,7 +4544,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -4502,7 +4567,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -4517,7 +4582,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -4532,7 +4597,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -4555,7 +4620,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -4576,7 +4641,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -4597,7 +4662,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -4618,7 +4683,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -4633,7 +4698,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -4648,7 +4713,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -4671,7 +4736,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -4686,7 +4751,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -4701,7 +4766,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -4722,7 +4787,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -4745,7 +4810,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -4768,7 +4833,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -4791,7 +4856,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -4814,7 +4879,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -4835,7 +4900,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -4850,7 +4915,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -4917,6 +4982,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -5125,24 +5207,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5159,29 +5249,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F785CB92-20E9-44DD-858B-F3B27EA2B247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D1312C-81CC-457F-9633-503A479FADD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1064,9 +1064,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>16770</xdr:colOff>
+      <xdr:colOff>20580</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>10043</xdr:rowOff>
+      <xdr:rowOff>11948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1127,7 +1127,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>12513</xdr:rowOff>
+      <xdr:rowOff>16323</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1186,9 +1186,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>16769</xdr:colOff>
+      <xdr:colOff>20579</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8610</xdr:rowOff>
+      <xdr:rowOff>10515</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1247,9 +1247,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>16769</xdr:colOff>
+      <xdr:colOff>20579</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19275</xdr:rowOff>
+      <xdr:rowOff>15465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1371,7 +1371,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>10086</xdr:rowOff>
+      <xdr:rowOff>11991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1644,8 +1644,8 @@
   </sheetPr>
   <dimension ref="A2:P120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>260.35999999999996</v>
+        <v>262.35999999999996</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="K9" s="52">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74</f>
-        <v>73.260000000000005</v>
+        <v>75.260000000000005</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -3131,8 +3131,8 @@
         <v>15.05</v>
       </c>
       <c r="K73">
-        <f>E74+E83+E92+E93+E94+E95</f>
-        <v>11</v>
+        <f>E74+E83+E92+E93+E94+E95+E105+E106+E107+E108+E119+E120</f>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="J74">
         <f>F80+F91+F102+F104+F103+F115+F116+F117</f>
-        <v>27.54</v>
+        <v>29.54</v>
       </c>
       <c r="K74">
         <f>E80+E91+E102+E103+E104+E115+E116+E117</f>
@@ -3294,7 +3294,7 @@
       <c r="F80" s="34">
         <v>8.5</v>
       </c>
-      <c r="G80" s="11"/>
+      <c r="G80" s="7"/>
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
@@ -3852,7 +3852,7 @@
         <v>5</v>
       </c>
       <c r="F115" s="34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G115" s="11"/>
     </row>
@@ -4917,6 +4917,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -5125,15 +5134,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5143,6 +5143,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5157,14 +5165,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D1312C-81CC-457F-9633-503A479FADD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B228EB-414B-4C80-B75A-E0283E79C288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,11 +39,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={96BFB097-130F-4FF8-8D67-2AB0D84D7421}</author>
-    <author>tc={DF52AA5C-B8EF-4813-B8A4-9D3D22ABB9F8}</author>
+    <author>tc={9371C6CE-05AE-48D9-9CC4-7BBBBF016020}</author>
+    <author>tc={779B0B16-BA1A-4FB6-BFB9-BA670422C61C}</author>
   </authors>
   <commentList>
-    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{96BFB097-130F-4FF8-8D67-2AB0D84D7421}">
+    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{9371C6CE-05AE-48D9-9CC4-7BBBBF016020}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,7 +51,7 @@
      (Un comando para instalar y otro para arrancar)</t>
       </text>
     </comment>
-    <comment ref="C99" authorId="1" shapeId="0" xr:uid="{DF52AA5C-B8EF-4813-B8A4-9D3D22ABB9F8}">
+    <comment ref="C99" authorId="1" shapeId="0" xr:uid="{779B0B16-BA1A-4FB6-BFB9-BA670422C61C}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="173">
   <si>
     <t>Nombre</t>
   </si>
@@ -576,6 +576,15 @@
   </si>
   <si>
     <t>TDD konguitorun</t>
+  </si>
+  <si>
+    <t>Investigar /Ver tutoriales de hosting</t>
+  </si>
+  <si>
+    <t>Investigar sobre AJAX</t>
+  </si>
+  <si>
+    <t>Investigar/Ver tutoriales sobre socket programming</t>
   </si>
 </sst>
 </file>
@@ -585,7 +594,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -658,6 +667,12 @@
       <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -789,7 +804,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -893,11 +908,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -997,6 +1032,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1421,6 +1492,380 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>13760</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152164</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6006981" cy="3469688"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="image1.jpg" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{982E88AE-C192-48FF-BC98-D11E7C37DEDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12647720" y="4466989"/>
+          <a:ext cx="6006981" cy="3469688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>348722</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1096</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="522304" cy="577453"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A209F1D-30A2-4E6A-BA04-511637F5A9E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12123527" y="3399344"/>
+          <a:ext cx="523393" cy="588339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>310445</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4704</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="544901" cy="607068"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10" descr="View alvaro-sanzc's full-sized avatar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640D6558-003B-4E53-9439-6FED6B07F4E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12085250" y="2206884"/>
+          <a:ext cx="544901" cy="613599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>301038</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>192851</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="571892" cy="610960"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11" descr="View HugoAHerrera's full-sized avatar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FC41EB-A611-458F-90BB-5B00AB163C3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12073938" y="392876"/>
+          <a:ext cx="572981" cy="619669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319852</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4703</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="549268" cy="606211"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12" descr="View DanielEscribanoIssacovitch's full-sized avatar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBDBE120-7168-40C3-9437-DE362C8473EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12096562" y="1006733"/>
+          <a:ext cx="550357" cy="612742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>315148</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>192852</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543222" cy="592019"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13" descr="View German0077's full-sized avatar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BEBD1DE-1B4C-436B-9EAD-2A00B0715842}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12089953" y="2793177"/>
+          <a:ext cx="543222" cy="600727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>310445</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4703</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="544901" cy="602736"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14" descr="View tomasmachin's full-sized avatar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FAC99F4-F6DE-4230-ABCA-A782845ECD16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12085250" y="1606808"/>
+          <a:ext cx="544901" cy="609268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1628,10 +2073,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C98" dT="2023-10-19T08:57:35.81" personId="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" id="{96BFB097-130F-4FF8-8D67-2AB0D84D7421}">
+  <threadedComment ref="C98" dT="2023-10-19T08:57:35.81" personId="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" id="{9371C6CE-05AE-48D9-9CC4-7BBBBF016020}">
     <text xml:space="preserve"> (Un comando para instalar y otro para arrancar)</text>
   </threadedComment>
-  <threadedComment ref="C99" dT="2023-10-19T08:57:35.81" personId="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" id="{DF52AA5C-B8EF-4813-B8A4-9D3D22ABB9F8}">
+  <threadedComment ref="C99" dT="2023-10-19T08:57:35.81" personId="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" id="{779B0B16-BA1A-4FB6-BFB9-BA670422C61C}">
     <text xml:space="preserve"> (Un comando para instalar y otro para arrancar)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1642,10 +2087,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P120"/>
+  <dimension ref="A2:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1694,41 +2139,41 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:F3" si="0">SUM(E6:E992)</f>
+        <f t="shared" ref="E3:F3" si="0">SUM(E6:E995)</f>
         <v>238.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>262.35999999999996</v>
+        <v>278.85999999999996</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
       <c r="K3" s="50">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73</f>
-        <v>64.25</v>
+        <v>80.75</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
       <c r="J5" s="24"/>
       <c r="K5" s="50"/>
       <c r="L5" s="2"/>
@@ -1776,7 +2221,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="51"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="52"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1797,7 +2242,7 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="51"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="52"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1843,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="53"/>
+      <c r="J10" s="66"/>
       <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1861,7 +2306,7 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="53"/>
+      <c r="J11" s="67"/>
       <c r="K11" s="52"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1904,7 +2349,7 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="54"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="52"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1922,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="54"/>
+      <c r="J14" s="65"/>
       <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1963,7 +2408,7 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="55"/>
+      <c r="J16" s="62"/>
       <c r="K16" s="52"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1981,7 +2426,7 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="55"/>
+      <c r="J17" s="63"/>
       <c r="K17" s="52"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2027,7 +2472,7 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="56"/>
+      <c r="J19" s="61"/>
       <c r="K19" s="52"/>
     </row>
     <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2047,7 +2492,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="56"/>
+      <c r="J20" s="61"/>
       <c r="K20" s="52"/>
     </row>
     <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2414,19 +2859,19 @@
       <c r="B41" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
     </row>
     <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
     </row>
     <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3101,11 +3546,11 @@
       <c r="B72" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3117,22 +3562,22 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J73">
-        <f>F74+F83+F92+F93+F94+F95+F105+F106+F107+F108+F119+F120</f>
-        <v>15.05</v>
+        <f>F74+F83+F92+F93+F94+F95+F108+F109+F110+F111+F122+F123+F105+F106+F107</f>
+        <v>31.55</v>
       </c>
       <c r="K73">
-        <f>E74+E83+E92+E93+E94+E95+E105+E106+E107+E108+E119+E120</f>
-        <v>41</v>
+        <f>E74+E83+E92+E93+E94+E95</f>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3156,11 +3601,11 @@
         <v>13</v>
       </c>
       <c r="J74">
-        <f>F80+F91+F102+F104+F103+F115+F116+F117</f>
+        <f>F80+F91+F102+F104+F103+F118+F119+F120</f>
         <v>29.54</v>
       </c>
       <c r="K74">
-        <f>E80+E91+E102+E103+E104+E115+E116+E117</f>
+        <f>E80+E91+E102+E103+E104+E118+E119+E120</f>
         <v>25.5</v>
       </c>
     </row>
@@ -3294,7 +3739,7 @@
       <c r="F80" s="34">
         <v>8.5</v>
       </c>
-      <c r="G80" s="7"/>
+      <c r="G80" s="11"/>
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
@@ -3697,40 +4142,44 @@
       <c r="E105" s="34">
         <v>4</v>
       </c>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
+      <c r="F105" s="34">
+        <v>10</v>
+      </c>
+      <c r="G105" s="7"/>
     </row>
     <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D106" s="34">
-        <v>24</v>
+        <v>170</v>
+      </c>
+      <c r="D106" s="34" t="s">
+        <v>11</v>
       </c>
       <c r="E106" s="34">
-        <v>15</v>
-      </c>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="34">
+        <v>2.5</v>
+      </c>
+      <c r="G106" s="7"/>
     </row>
     <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D107" s="34" t="s">
         <v>11</v>
       </c>
       <c r="E107" s="34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F107" s="34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G107" s="7"/>
     </row>
@@ -3739,198 +4188,250 @@
         <v>9</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D108" s="34" t="s">
         <v>11</v>
       </c>
       <c r="E108" s="34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F108" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G108" s="7"/>
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="43" t="s">
-        <v>14</v>
+      <c r="B109" s="42" t="s">
+        <v>9</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="D109" s="34">
-        <v>23</v>
-      </c>
-      <c r="E109" s="34"/>
+        <v>24</v>
+      </c>
+      <c r="E109" s="34">
+        <v>15</v>
+      </c>
       <c r="F109" s="34"/>
       <c r="G109" s="34"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="44" t="s">
+      <c r="B110" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="34">
+        <v>3</v>
+      </c>
+      <c r="F110" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G110" s="7"/>
+    </row>
+    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D111" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="34">
+        <v>2</v>
+      </c>
+      <c r="F111" s="34">
+        <v>1</v>
+      </c>
+      <c r="G111" s="7"/>
+    </row>
+    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="C112" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D112" s="34">
+        <v>23</v>
+      </c>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+    </row>
+    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D110" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-    </row>
-    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C111" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="D111" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-    </row>
-    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="D112" s="37">
-        <v>29</v>
-      </c>
-      <c r="E112" s="37">
-        <v>10</v>
-      </c>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
-    </row>
-    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="D113" s="34">
-        <v>45</v>
+      <c r="D113" s="34" t="s">
+        <v>11</v>
       </c>
       <c r="E113" s="34"/>
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="5" t="s">
-        <v>12</v>
+      <c r="B114" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="D114" s="34">
-        <v>10</v>
+        <v>161</v>
+      </c>
+      <c r="D114" s="34" t="s">
+        <v>11</v>
       </c>
       <c r="E114" s="34"/>
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="45" t="s">
+      <c r="B115" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D115" s="37">
+        <v>29</v>
+      </c>
+      <c r="E115" s="37">
+        <v>10</v>
+      </c>
+      <c r="F115" s="37"/>
+      <c r="G115" s="37"/>
+    </row>
+    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D116" s="34">
+        <v>45</v>
+      </c>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+    </row>
+    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D117" s="34">
+        <v>10</v>
+      </c>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+    </row>
+    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C115" s="34" t="s">
+      <c r="C118" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D115" s="34">
+      <c r="D118" s="34">
         <v>37</v>
       </c>
-      <c r="E115" s="34">
+      <c r="E118" s="34">
         <v>5</v>
       </c>
-      <c r="F115" s="34">
+      <c r="F118" s="34">
         <v>7</v>
       </c>
-      <c r="G115" s="11"/>
-    </row>
-    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="45" t="s">
+      <c r="G118" s="11"/>
+    </row>
+    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C116" s="34" t="s">
+      <c r="C119" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="D116" s="34">
+      <c r="D119" s="34">
         <v>12</v>
       </c>
-      <c r="E116" s="34">
+      <c r="E119" s="34">
         <v>7</v>
       </c>
-      <c r="F116" s="34">
+      <c r="F119" s="34">
         <v>0.17</v>
       </c>
-      <c r="G116" s="11"/>
-    </row>
-    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="45" t="s">
+      <c r="G119" s="11"/>
+    </row>
+    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C117" s="46" t="s">
+      <c r="C120" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="D117" s="46"/>
-      <c r="E117" s="46">
+      <c r="D120" s="46"/>
+      <c r="E120" s="46">
         <v>0.5</v>
       </c>
-      <c r="F117" s="46">
+      <c r="F120" s="46">
         <v>1.5</v>
       </c>
-      <c r="G117" s="11"/>
-    </row>
-    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="10" t="s">
+      <c r="G120" s="11"/>
+    </row>
+    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C118" s="47" t="s">
+      <c r="C121" s="47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="4" t="s">
+    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="34" t="s">
+      <c r="C122" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D119" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="34">
+      <c r="D122" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="34">
         <v>2</v>
       </c>
-      <c r="F119" s="34">
+      <c r="F122" s="34">
         <v>1.5</v>
       </c>
-      <c r="G119" s="7"/>
-    </row>
-    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="4" t="s">
+      <c r="G122" s="7"/>
+    </row>
+    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="34" t="s">
+      <c r="C123" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="D120" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" s="34">
+      <c r="D123" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="34">
         <v>4</v>
       </c>
-      <c r="F120" s="34"/>
-      <c r="G120" s="48"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4917,12 +5418,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5135,17 +5635,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5170,18 +5680,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B228EB-414B-4C80-B75A-E0283E79C288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C158C4A-FDBD-4F37-9250-7ED1C97E3979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="174">
   <si>
     <t>Nombre</t>
   </si>
@@ -585,6 +585,9 @@
   </si>
   <si>
     <t>Investigar/Ver tutoriales sobre socket programming</t>
+  </si>
+  <si>
+    <t>Arrancar la aplicación por cmd en una máquina vacía (investiagación)</t>
   </si>
 </sst>
 </file>
@@ -594,7 +597,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -667,12 +670,6 @@
       <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1009,30 +1006,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1042,32 +1015,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2089,8 +2086,8 @@
   </sheetPr>
   <dimension ref="A2:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2140,15 +2137,15 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E995)</f>
-        <v>238.2</v>
+        <v>242.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>278.85999999999996</v>
+        <v>286.95999999999998</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="50">
+      <c r="K3" s="53">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73</f>
         <v>80.75</v>
       </c>
@@ -2157,25 +2154,25 @@
       <c r="B4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="50"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="50"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -2195,12 +2192,12 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="57">
         <f>F7+F13+F20+F43+F45+F47+F46+J76</f>
-        <v>31.5</v>
+        <v>39.6</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2221,8 +2218,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="52"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="57"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
@@ -2242,8 +2239,8 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="52"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
@@ -2263,10 +2260,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="57">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74</f>
         <v>75.260000000000005</v>
       </c>
@@ -2288,8 +2285,8 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="52"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="57"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -2306,8 +2303,8 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="52"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
@@ -2326,10 +2323,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="52">
+      <c r="K12" s="57">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77</f>
         <v>36.6</v>
       </c>
@@ -2349,8 +2346,8 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="52"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -2367,8 +2364,8 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="52"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="57"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -2385,10 +2382,10 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="57">
         <f>F10+F16+F39+F40+F49+F50+F51+J75</f>
         <v>28</v>
       </c>
@@ -2408,8 +2405,8 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="52"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="57"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -2426,8 +2423,8 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="52"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="57"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -2446,10 +2443,10 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="52">
+      <c r="K18" s="57">
         <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+F79+F82+F81+J78</f>
         <v>30.25</v>
       </c>
@@ -2472,8 +2469,8 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="52"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -2492,8 +2489,8 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="52"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="57"/>
     </row>
     <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -2530,11 +2527,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
     </row>
     <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2859,19 +2856,19 @@
       <c r="B41" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
     </row>
     <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="59"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
     </row>
     <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3546,11 +3543,11 @@
       <c r="B72" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3562,12 +3559,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="59"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -3619,9 +3616,13 @@
       <c r="D75" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
+      <c r="E75" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F75" s="34">
+        <v>2</v>
+      </c>
+      <c r="G75" s="7"/>
       <c r="I75" s="9" t="s">
         <v>15</v>
       </c>
@@ -3652,11 +3653,11 @@
       </c>
       <c r="J76">
         <f>F75+F89+F90+F99+F100</f>
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="K76">
         <f>E75+E89+E90+E99+E100</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3874,8 +3875,10 @@
       <c r="E89" s="34">
         <v>1</v>
       </c>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
+      <c r="F89" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G89" s="7"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
@@ -3890,8 +3893,10 @@
       <c r="E90" s="34">
         <v>2</v>
       </c>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
+      <c r="F90" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G90" s="7"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
@@ -4038,13 +4043,17 @@
         <v>12</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="D99" s="37">
         <v>48</v>
       </c>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
+      <c r="E99" s="37">
+        <v>3</v>
+      </c>
+      <c r="F99" s="37">
+        <v>5</v>
+      </c>
       <c r="G99" s="11"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4055,9 +4064,13 @@
         <v>145</v>
       </c>
       <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
+      <c r="E100" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F100" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="G100" s="7"/>
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="40" t="s">
@@ -5418,11 +5431,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5635,27 +5649,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5680,9 +5684,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C158C4A-FDBD-4F37-9250-7ED1C97E3979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9A4BC4-F399-48F8-BCAA-BE7A12297B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2086,8 +2086,8 @@
   </sheetPr>
   <dimension ref="A2:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>286.95999999999998</v>
+        <v>292.95999999999998</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="K6" s="57">
         <f>F7+F13+F20+F43+F45+F47+F46+J76</f>
-        <v>39.6</v>
+        <v>45.6</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -3652,12 +3652,12 @@
         <v>12</v>
       </c>
       <c r="J76">
-        <f>F75+F89+F90+F99+F100</f>
-        <v>8.1</v>
+        <f>F75+F89+F90+F99+F100+F115+F116+F117</f>
+        <v>14.1</v>
       </c>
       <c r="K76">
-        <f>E75+E89+E90+E99+E100</f>
-        <v>7</v>
+        <f>E75+E89+E90+E99+E100+E115+E116+E117</f>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4321,8 +4321,10 @@
       <c r="E115" s="37">
         <v>10</v>
       </c>
-      <c r="F115" s="37"/>
-      <c r="G115" s="37"/>
+      <c r="F115" s="37">
+        <v>6</v>
+      </c>
+      <c r="G115" s="11"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
@@ -5431,12 +5433,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5649,17 +5650,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5684,18 +5695,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9A4BC4-F399-48F8-BCAA-BE7A12297B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D998292-048C-4D89-BD0F-F37B9A8EF5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2086,8 +2086,8 @@
   </sheetPr>
   <dimension ref="A2:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2196,8 +2196,8 @@
         <v>12</v>
       </c>
       <c r="K6" s="57">
-        <f>F7+F13+F20+F43+F45+F47+F46+J76</f>
-        <v>45.6</v>
+        <f>F7+F13+F20+F43+F45+F47+F46+J76+F75+F89+F90+F99+F100+F115+F116+F117</f>
+        <v>59.7</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -5433,11 +5433,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5650,27 +5651,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5695,9 +5686,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B228EB-414B-4C80-B75A-E0283E79C288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE26C9A-0C8F-4DCC-B8D0-A3E526341C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -569,9 +569,6 @@
     <t xml:space="preserve">idiomas </t>
   </si>
   <si>
-    <t>boton de volumen</t>
-  </si>
-  <si>
     <t>Hacer cartel + frontal blackjack</t>
   </si>
   <si>
@@ -585,6 +582,9 @@
   </si>
   <si>
     <t>Investigar/Ver tutoriales sobre socket programming</t>
+  </si>
+  <si>
+    <t>boton de volumen (mutear)</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -667,12 +667,6 @@
       <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1009,30 +1003,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1042,32 +1012,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,7 +1131,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>20580</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>11948</xdr:rowOff>
+      <xdr:rowOff>19568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1259,7 +1253,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>20579</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>10515</xdr:rowOff>
+      <xdr:rowOff>16230</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1380,8 +1374,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>193504</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3004</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1442,7 +1436,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>11991</xdr:rowOff>
+      <xdr:rowOff>19611</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2089,8 +2083,8 @@
   </sheetPr>
   <dimension ref="A2:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2140,15 +2134,15 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E995)</f>
-        <v>238.2</v>
+        <v>238.7</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>278.85999999999996</v>
+        <v>282.86999999999995</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="50">
+      <c r="K3" s="53">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73</f>
         <v>80.75</v>
       </c>
@@ -2157,25 +2151,25 @@
       <c r="B4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="50"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="50"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -2195,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="57">
         <f>F7+F13+F20+F43+F45+F47+F46+J76</f>
         <v>31.5</v>
       </c>
@@ -2221,8 +2215,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="52"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="57"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
@@ -2242,8 +2236,8 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="52"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
@@ -2263,12 +2257,12 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="57">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74</f>
-        <v>75.260000000000005</v>
+        <v>79.27000000000001</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2288,8 +2282,8 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="52"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="57"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -2306,8 +2300,8 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="52"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
@@ -2326,10 +2320,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="52">
+      <c r="K12" s="57">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77</f>
         <v>36.6</v>
       </c>
@@ -2349,8 +2343,8 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="52"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -2367,8 +2361,8 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="52"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="57"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -2385,10 +2379,10 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="57">
         <f>F10+F16+F39+F40+F49+F50+F51+J75</f>
         <v>28</v>
       </c>
@@ -2408,8 +2402,8 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="52"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="57"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -2426,8 +2420,8 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="52"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="57"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -2446,10 +2440,10 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="52">
+      <c r="K18" s="57">
         <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+F79+F82+F81+J78</f>
         <v>30.25</v>
       </c>
@@ -2472,8 +2466,8 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="52"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -2492,8 +2486,8 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="52"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="57"/>
     </row>
     <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -2530,11 +2524,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
     </row>
     <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2859,19 +2853,19 @@
       <c r="B41" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
     </row>
     <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="59"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
     </row>
     <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3546,11 +3540,11 @@
       <c r="B72" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3562,12 +3556,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="59"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -3576,8 +3570,8 @@
         <v>31.55</v>
       </c>
       <c r="K73">
-        <f>E74+E83+E92+E93+E94+E95</f>
-        <v>11</v>
+        <f>E74+E83+E92+E93+E94+E95+E105+E106+E107+E108+E109+E110+E111+E122+E122+E122+E123</f>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3602,11 +3596,11 @@
       </c>
       <c r="J74">
         <f>F80+F91+F102+F104+F103+F118+F119+F120</f>
-        <v>29.54</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="K74">
         <f>E80+E91+E102+E103+E104+E118+E119+E120</f>
-        <v>25.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3651,12 +3645,12 @@
         <v>12</v>
       </c>
       <c r="J76">
-        <f>F75+F89+F90+F99+F100</f>
+        <f>F75+F89+F90+F99+F100+F115+F116+F117</f>
         <v>0</v>
       </c>
       <c r="K76">
-        <f>E75+E89+E90+E99+E100</f>
-        <v>3</v>
+        <f>E75+E89+E90+E99+E100+E115+E116+E117</f>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3680,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <f>E84+E85+E86+E87</f>
+        <f>E84+E85+E86+E87+E112+E113+E114</f>
         <v>3</v>
       </c>
     </row>
@@ -3701,12 +3695,12 @@
         <v>16</v>
       </c>
       <c r="J78">
-        <f>F79+F81+F82+F97</f>
+        <f>F79+F81+F82+F97+F121</f>
         <v>7</v>
       </c>
       <c r="K78">
-        <f>E79+E82+E81</f>
-        <v>12</v>
+        <f>E79+E82+E81+E97+E121</f>
+        <v>12.5</v>
       </c>
     </row>
     <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4107,7 +4101,7 @@
         <v>2</v>
       </c>
       <c r="F103" s="1">
-        <v>4.17</v>
+        <v>4.34</v>
       </c>
       <c r="G103" s="11"/>
     </row>
@@ -4152,7 +4146,7 @@
         <v>9</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D106" s="34" t="s">
         <v>11</v>
@@ -4170,7 +4164,7 @@
         <v>9</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D107" s="34" t="s">
         <v>11</v>
@@ -4188,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D108" s="34" t="s">
         <v>11</v>
@@ -4353,7 +4347,7 @@
         <v>5</v>
       </c>
       <c r="F118" s="34">
-        <v>7</v>
+        <v>10.84</v>
       </c>
       <c r="G118" s="11"/>
     </row>
@@ -4380,11 +4374,11 @@
         <v>13</v>
       </c>
       <c r="C120" s="46" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D120" s="46"/>
       <c r="E120" s="46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F120" s="46">
         <v>1.5</v>
@@ -4404,7 +4398,7 @@
         <v>9</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D122" s="34" t="s">
         <v>11</v>
@@ -4422,7 +4416,7 @@
         <v>9</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D123" s="34" t="s">
         <v>11</v>

--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE26C9A-0C8F-4DCC-B8D0-A3E526341C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F639161-EC64-4239-8E76-F4D7802F3CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2083,8 +2083,8 @@
   </sheetPr>
   <dimension ref="A2:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2134,11 +2134,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E995)</f>
-        <v>238.7</v>
+        <v>242.7</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>282.86999999999995</v>
+        <v>296.96999999999991</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2193,8 +2193,8 @@
         <v>12</v>
       </c>
       <c r="K6" s="57">
-        <f>F7+F13+F20+F43+F45+F47+F46+J76</f>
-        <v>31.5</v>
+        <f>F7+F13+F20+F43+F45+F47+F46+J76+F75+F89+F90+F99+F100+F115+F116+F117</f>
+        <v>59.7</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -3613,9 +3613,13 @@
       <c r="D75" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
+      <c r="E75" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F75" s="34">
+        <v>2</v>
+      </c>
+      <c r="G75" s="7"/>
       <c r="I75" s="9" t="s">
         <v>15</v>
       </c>
@@ -3646,11 +3650,11 @@
       </c>
       <c r="J76">
         <f>F75+F89+F90+F99+F100+F115+F116+F117</f>
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="K76">
         <f>E75+E89+E90+E99+E100+E115+E116+E117</f>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3868,8 +3872,10 @@
       <c r="E89" s="34">
         <v>1</v>
       </c>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
+      <c r="F89" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G89" s="7"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
@@ -3884,8 +3890,10 @@
       <c r="E90" s="34">
         <v>2</v>
       </c>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
+      <c r="F90" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G90" s="7"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
@@ -4037,8 +4045,12 @@
       <c r="D99" s="37">
         <v>48</v>
       </c>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
+      <c r="E99" s="37">
+        <v>3</v>
+      </c>
+      <c r="F99" s="37">
+        <v>5</v>
+      </c>
       <c r="G99" s="11"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4049,9 +4061,13 @@
         <v>145</v>
       </c>
       <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
+      <c r="E100" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F100" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="G100" s="7"/>
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="40" t="s">
@@ -4302,8 +4318,10 @@
       <c r="E115" s="37">
         <v>10</v>
       </c>
-      <c r="F115" s="37"/>
-      <c r="G115" s="37"/>
+      <c r="F115" s="37">
+        <v>6</v>
+      </c>
+      <c r="G115" s="11"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
@@ -5412,11 +5430,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5629,27 +5648,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5674,9 +5683,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7nume\OneDrive\Documentos\CEU\3- Tercero\Software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F639161-EC64-4239-8E76-F4D7802F3CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E50BFE-8C0D-4BE0-B974-AED806A924D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="173">
   <si>
     <t>Nombre</t>
   </si>
@@ -926,7 +926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1063,6 +1063,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2083,8 +2084,8 @@
   </sheetPr>
   <dimension ref="A2:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2134,11 +2135,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E995)</f>
-        <v>242.7</v>
+        <v>247.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>296.96999999999991</v>
+        <v>305.46999999999997</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2384,7 +2385,7 @@
       </c>
       <c r="K15" s="57">
         <f>F10+F16+F39+F40+F49+F50+F51+J75</f>
-        <v>28</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3625,11 +3626,11 @@
       </c>
       <c r="J75">
         <f>F76+F77+F78+F88+F96+F101</f>
-        <v>1</v>
+        <v>9.5</v>
       </c>
       <c r="K75">
         <f>E76+E77+E78+E88+E96+E101</f>
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3642,7 +3643,9 @@
       <c r="D76" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="34"/>
+      <c r="E76" s="34">
+        <v>1</v>
+      </c>
       <c r="F76" s="34"/>
       <c r="G76" s="34"/>
       <c r="I76" s="5" t="s">
@@ -3667,9 +3670,13 @@
       <c r="D77" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
+      <c r="E77" s="34">
+        <v>2</v>
+      </c>
+      <c r="F77" s="34">
+        <v>5.5</v>
+      </c>
+      <c r="G77" s="70"/>
       <c r="I77" s="8" t="s">
         <v>14</v>
       </c>
@@ -3692,9 +3699,13 @@
       <c r="D78" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
+      <c r="E78" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F78" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G78" s="70"/>
       <c r="I78" s="10" t="s">
         <v>16</v>
       </c>
@@ -3854,10 +3865,16 @@
       <c r="C88" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
+      <c r="D88" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="34">
+        <v>1</v>
+      </c>
+      <c r="F88" s="34">
+        <v>2.5</v>
+      </c>
+      <c r="G88" s="70"/>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
@@ -5430,12 +5447,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5648,17 +5664,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5683,18 +5709,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7nume\OneDrive\Documentos\CEU\3- Tercero\Software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzc\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E50BFE-8C0D-4BE0-B974-AED806A924D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E34721B-9485-4FFF-A2B3-8DEAB0AF5D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1000,6 +1000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1063,7 +1064,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2084,23 +2084,23 @@
   </sheetPr>
   <dimension ref="A2:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K90" sqref="K90"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.21875" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.77734375" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="35.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2139,43 +2139,43 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>305.46999999999997</v>
+        <v>313.71999999999997</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="53">
+      <c r="K3" s="54">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73</f>
         <v>80.75</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="49" t="s">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="53"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2190,10 +2190,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="58">
         <f>F7+F13+F20+F43+F45+F47+F46+J76+F75+F89+F90+F99+F100+F115+F116+F117</f>
         <v>59.7</v>
       </c>
@@ -2201,7 +2201,7 @@
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2216,13 +2216,13 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="57"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2237,13 +2237,13 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -2258,17 +2258,17 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K9" s="58">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74</f>
         <v>79.27000000000001</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
@@ -2283,10 +2283,10 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="57"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="60"/>
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2301,12 +2301,12 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="57"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="58"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2321,15 +2321,15 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="61" t="s">
+      <c r="J12" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="58">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77</f>
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2344,10 +2344,10 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="57"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="63"/>
+      <c r="K13" s="58"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="57"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="64"/>
+      <c r="K14" s="58"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -2380,15 +2380,15 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="64" t="s">
+      <c r="J15" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="58">
         <f>F10+F16+F39+F40+F49+F50+F51+J75</f>
         <v>36.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2403,10 +2403,10 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="57"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="66"/>
+      <c r="K16" s="58"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2421,10 +2421,10 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="57"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="67"/>
+      <c r="K17" s="58"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -2441,15 +2441,15 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="57">
+      <c r="K18" s="58">
         <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+F79+F82+F81+J78</f>
         <v>30.25</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -2467,10 +2467,10 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="57"/>
-    </row>
-    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J19" s="69"/>
+      <c r="K19" s="58"/>
+    </row>
+    <row r="20" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2487,10 +2487,10 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="57"/>
-    </row>
-    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J20" s="69"/>
+      <c r="K20" s="58"/>
+    </row>
+    <row r="21" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2525,13 +2525,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="69" t="s">
+      <c r="J22" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-    </row>
-    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+    </row>
+    <row r="23" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2692,7 +2692,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2721,10 +2721,12 @@
         <v>30</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2742,7 +2744,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2760,7 +2762,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2778,7 +2780,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2796,7 +2798,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2814,7 +2816,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2832,7 +2834,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2850,25 +2852,25 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="49" t="s">
+    <row r="41" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B41" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-    </row>
-    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="51"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-    </row>
-    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+    </row>
+    <row r="42" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B42" s="52"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+    </row>
+    <row r="43" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2886,7 +2888,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2904,7 +2906,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -2922,7 +2924,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2940,7 +2942,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -2958,7 +2960,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -2976,7 +2978,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3003,7 +3005,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3032,7 +3034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3061,7 +3063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3090,7 +3092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3119,7 +3121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3148,7 +3150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3168,14 +3170,14 @@
       </c>
       <c r="J55">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38</f>
-        <v>29.6</v>
+        <v>29.85</v>
       </c>
       <c r="K55">
         <f>SUM(E32:E38)</f>
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3193,7 +3195,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3211,7 +3213,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3238,7 +3240,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3267,7 +3269,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3296,7 +3298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3323,7 +3325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>9</v>
       </c>
@@ -3352,7 +3354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
@@ -3381,7 +3383,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
@@ -3410,7 +3412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>9</v>
       </c>
@@ -3428,7 +3430,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
@@ -3447,7 +3449,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
@@ -3465,7 +3467,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -3483,7 +3485,7 @@
       </c>
       <c r="G68" s="26"/>
     </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -3501,7 +3503,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -3519,7 +3521,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3537,15 +3539,15 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="49" t="s">
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3556,13 +3558,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="51"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="52"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -3575,7 +3577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
@@ -3604,7 +3606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="5" t="s">
         <v>12</v>
       </c>
@@ -3633,7 +3635,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
@@ -3660,7 +3662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
@@ -3676,20 +3678,20 @@
       <c r="F77" s="34">
         <v>5.5</v>
       </c>
-      <c r="G77" s="70"/>
+      <c r="G77" s="49"/>
       <c r="I77" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J77">
         <f>F84+F85+F86+F87</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K77">
         <f>E84+E85+E86+E87+E112+E113+E114</f>
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
@@ -3705,7 +3707,7 @@
       <c r="F78" s="34">
         <v>0.5</v>
       </c>
-      <c r="G78" s="70"/>
+      <c r="G78" s="49"/>
       <c r="I78" s="10" t="s">
         <v>16</v>
       </c>
@@ -3718,7 +3720,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -3734,7 +3736,7 @@
       </c>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
         <v>13</v>
       </c>
@@ -3750,7 +3752,7 @@
       </c>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -3764,7 +3766,7 @@
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
     </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
@@ -3782,7 +3784,7 @@
       </c>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
@@ -3800,7 +3802,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="8" t="s">
         <v>14</v>
       </c>
@@ -3814,7 +3816,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -3828,7 +3830,7 @@
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
     </row>
-    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
@@ -3842,7 +3844,7 @@
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
     </row>
-    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="36" t="s">
         <v>14</v>
       </c>
@@ -3855,10 +3857,12 @@
       <c r="E87" s="37">
         <v>3</v>
       </c>
-      <c r="F87" s="37"/>
+      <c r="F87" s="37">
+        <v>8</v>
+      </c>
       <c r="G87" s="37"/>
     </row>
-    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
@@ -3874,9 +3878,9 @@
       <c r="F88" s="34">
         <v>2.5</v>
       </c>
-      <c r="G88" s="70"/>
-    </row>
-    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G88" s="49"/>
+    </row>
+    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="5" t="s">
         <v>12</v>
       </c>
@@ -3894,7 +3898,7 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="5" t="s">
         <v>12</v>
       </c>
@@ -3912,7 +3916,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="6" t="s">
         <v>13</v>
       </c>
@@ -3930,7 +3934,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
@@ -3948,7 +3952,7 @@
       </c>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
@@ -3966,7 +3970,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -3984,7 +3988,7 @@
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
@@ -4002,7 +4006,7 @@
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="40" t="s">
         <v>15</v>
       </c>
@@ -4020,7 +4024,7 @@
       </c>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
@@ -4038,7 +4042,7 @@
       </c>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="37" t="s">
         <v>150</v>
       </c>
@@ -4052,7 +4056,7 @@
       <c r="F98" s="37"/>
       <c r="G98" s="11"/>
     </row>
-    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="5" t="s">
         <v>12</v>
       </c>
@@ -4070,7 +4074,7 @@
       </c>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="5" t="s">
         <v>12</v>
       </c>
@@ -4086,7 +4090,7 @@
       </c>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="40" t="s">
         <v>15</v>
       </c>
@@ -4104,7 +4108,7 @@
       </c>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="6" t="s">
         <v>13</v>
       </c>
@@ -4120,7 +4124,7 @@
       </c>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
         <v>13</v>
       </c>
@@ -4138,7 +4142,7 @@
       </c>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="6" t="s">
         <v>13</v>
       </c>
@@ -4156,7 +4160,7 @@
       </c>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="42" t="s">
         <v>9</v>
       </c>
@@ -4174,7 +4178,7 @@
       </c>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="42" t="s">
         <v>9</v>
       </c>
@@ -4192,7 +4196,7 @@
       </c>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="42" t="s">
         <v>9</v>
       </c>
@@ -4210,7 +4214,7 @@
       </c>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="42" t="s">
         <v>9</v>
       </c>
@@ -4228,7 +4232,7 @@
       </c>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="42" t="s">
         <v>9</v>
       </c>
@@ -4244,7 +4248,7 @@
       <c r="F109" s="34"/>
       <c r="G109" s="34"/>
     </row>
-    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="42" t="s">
         <v>9</v>
       </c>
@@ -4262,7 +4266,7 @@
       </c>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="42" t="s">
         <v>9</v>
       </c>
@@ -4280,7 +4284,7 @@
       </c>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="43" t="s">
         <v>14</v>
       </c>
@@ -4294,7 +4298,7 @@
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
     </row>
-    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="44" t="s">
         <v>14</v>
       </c>
@@ -4308,7 +4312,7 @@
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
     </row>
-    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="44" t="s">
         <v>14</v>
       </c>
@@ -4322,7 +4326,7 @@
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
     </row>
-    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="5" t="s">
         <v>12</v>
       </c>
@@ -4340,7 +4344,7 @@
       </c>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="5" t="s">
         <v>12</v>
       </c>
@@ -4354,7 +4358,7 @@
       <c r="F116" s="34"/>
       <c r="G116" s="34"/>
     </row>
-    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="5" t="s">
         <v>12</v>
       </c>
@@ -4368,7 +4372,7 @@
       <c r="F117" s="34"/>
       <c r="G117" s="34"/>
     </row>
-    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="45" t="s">
         <v>13</v>
       </c>
@@ -4386,7 +4390,7 @@
       </c>
       <c r="G118" s="11"/>
     </row>
-    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="45" t="s">
         <v>13</v>
       </c>
@@ -4404,7 +4408,7 @@
       </c>
       <c r="G119" s="11"/>
     </row>
-    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="45" t="s">
         <v>13</v>
       </c>
@@ -4420,7 +4424,7 @@
       </c>
       <c r="G120" s="11"/>
     </row>
-    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="10" t="s">
         <v>16</v>
       </c>
@@ -4428,7 +4432,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="4" t="s">
         <v>9</v>
       </c>
@@ -4446,7 +4450,7 @@
       </c>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="4" t="s">
         <v>9</v>
       </c>
@@ -4497,17 +4501,17 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>91</v>
       </c>
@@ -4537,7 +4541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4566,7 +4570,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -4587,7 +4591,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -4610,7 +4614,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -4625,7 +4629,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -4644,7 +4648,7 @@
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -4667,7 +4671,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -4682,7 +4686,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -4705,7 +4709,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -4720,7 +4724,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -4735,7 +4739,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -4750,7 +4754,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -4765,7 +4769,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -4780,7 +4784,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -4795,7 +4799,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -4810,7 +4814,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -4825,7 +4829,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -4846,7 +4850,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -4867,7 +4871,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -4884,7 +4888,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -4905,7 +4909,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -4920,7 +4924,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -4935,7 +4939,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -4956,7 +4960,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -4971,7 +4975,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -4994,7 +4998,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5009,7 +5013,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5032,7 +5036,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5047,7 +5051,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5062,7 +5066,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5085,7 +5089,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5106,7 +5110,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5127,7 +5131,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5148,7 +5152,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5163,7 +5167,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5178,7 +5182,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5201,7 +5205,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5216,7 +5220,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5231,7 +5235,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5252,7 +5256,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5275,7 +5279,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5298,7 +5302,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5321,7 +5325,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5344,7 +5348,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5365,7 +5369,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5380,7 +5384,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5401,7 +5405,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -5424,7 +5428,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="38">
         <v>48</v>
       </c>
@@ -5447,11 +5451,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5664,27 +5669,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5709,9 +5704,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzc\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E34721B-9485-4FFF-A2B3-8DEAB0AF5D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BB8567-6F06-4950-AB7B-1FEC9058AE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
   <authors>
     <author>tc={9371C6CE-05AE-48D9-9CC4-7BBBBF016020}</author>
     <author>tc={779B0B16-BA1A-4FB6-BFB9-BA670422C61C}</author>
+    <author>tc={DCADFB7B-A4CD-4265-8258-B2317A485A47}</author>
   </authors>
   <commentList>
     <comment ref="C98" authorId="0" shapeId="0" xr:uid="{9371C6CE-05AE-48D9-9CC4-7BBBBF016020}">
@@ -59,12 +60,20 @@
      (Un comando para instalar y otro para arrancar)</t>
       </text>
     </comment>
+    <comment ref="C124" authorId="2" shapeId="0" xr:uid="{DCADFB7B-A4CD-4265-8258-B2317A485A47}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+     (Un comando para instalar y otro para arrancar)</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="174">
   <si>
     <t>Nombre</t>
   </si>
@@ -585,6 +594,9 @@
   </si>
   <si>
     <t>boton de volumen (mutear)</t>
+  </si>
+  <si>
+    <t>Arrancar la aplicación con render</t>
   </si>
 </sst>
 </file>
@@ -594,7 +606,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -667,6 +679,12 @@
       <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -2074,6 +2092,9 @@
   <threadedComment ref="C99" dT="2023-10-19T08:57:35.81" personId="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" id="{779B0B16-BA1A-4FB6-BFB9-BA670422C61C}">
     <text xml:space="preserve"> (Un comando para instalar y otro para arrancar)</text>
   </threadedComment>
+  <threadedComment ref="C124" dT="2023-10-19T08:57:35.81" personId="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" id="{DCADFB7B-A4CD-4265-8258-B2317A485A47}">
+    <text xml:space="preserve"> (Un comando para instalar y otro para arrancar)</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2082,25 +2103,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P123"/>
+  <dimension ref="A2:P124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="35.42578125" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.26953125" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.7265625" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2126,7 +2147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2139,16 +2160,16 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>313.71999999999997</v>
+        <v>320.46999999999997</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
       <c r="K3" s="54">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73</f>
-        <v>80.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="50" t="s">
         <v>8</v>
       </c>
@@ -2162,7 +2183,7 @@
       </c>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="52"/>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
@@ -2175,7 +2196,7 @@
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2201,7 +2222,7 @@
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2222,7 +2243,7 @@
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2243,7 +2264,7 @@
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -2268,7 +2289,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
@@ -2286,7 +2307,7 @@
       <c r="J10" s="60"/>
       <c r="K10" s="58"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2306,7 +2327,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2329,7 +2350,7 @@
         <v>44.85</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2347,7 +2368,7 @@
       <c r="J13" s="63"/>
       <c r="K13" s="58"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2365,7 +2386,7 @@
       <c r="J14" s="64"/>
       <c r="K14" s="58"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -2388,7 +2409,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2406,7 +2427,7 @@
       <c r="J16" s="66"/>
       <c r="K16" s="58"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2424,7 +2445,7 @@
       <c r="J17" s="67"/>
       <c r="K17" s="58"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -2449,7 +2470,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -2470,7 +2491,7 @@
       <c r="J19" s="69"/>
       <c r="K19" s="58"/>
     </row>
-    <row r="20" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2490,7 +2511,7 @@
       <c r="J20" s="69"/>
       <c r="K20" s="58"/>
     </row>
-    <row r="21" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2508,7 +2529,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2531,7 +2552,7 @@
       <c r="K22" s="70"/>
       <c r="L22" s="70"/>
     </row>
-    <row r="23" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2549,7 +2570,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2567,7 +2588,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2585,7 +2606,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2603,7 +2624,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2621,7 +2642,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2639,7 +2660,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2657,7 +2678,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2675,7 +2696,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2692,7 +2713,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2710,7 +2731,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2726,7 +2747,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2744,7 +2765,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2762,7 +2783,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2780,7 +2801,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2798,7 +2819,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2816,7 +2837,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2834,7 +2855,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2852,7 +2873,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B41" s="50" t="s">
         <v>36</v>
       </c>
@@ -2862,7 +2883,7 @@
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
     </row>
-    <row r="42" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B42" s="52"/>
       <c r="C42" s="53"/>
       <c r="D42" s="53"/>
@@ -2870,7 +2891,7 @@
       <c r="F42" s="53"/>
       <c r="G42" s="53"/>
     </row>
-    <row r="43" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2888,7 +2909,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2906,7 +2927,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -2924,7 +2945,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2942,7 +2963,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -2960,7 +2981,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -2978,7 +2999,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3005,7 +3026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3034,7 +3055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3063,7 +3084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3092,7 +3113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3121,7 +3142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3150,7 +3171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3177,7 +3198,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3195,7 +3216,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3213,7 +3234,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3240,7 +3261,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3269,7 +3290,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3298,7 +3319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3325,7 +3346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>9</v>
       </c>
@@ -3354,7 +3375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
@@ -3383,7 +3404,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
@@ -3412,7 +3433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>9</v>
       </c>
@@ -3430,7 +3451,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
@@ -3449,7 +3470,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
@@ -3467,7 +3488,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -3485,7 +3506,7 @@
       </c>
       <c r="G68" s="26"/>
     </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -3503,7 +3524,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -3521,7 +3542,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3539,7 +3560,7 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="50" t="s">
         <v>67</v>
       </c>
@@ -3558,7 +3579,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="52"/>
       <c r="C73" s="53"/>
       <c r="D73" s="53"/>
@@ -3569,15 +3590,15 @@
         <v>9</v>
       </c>
       <c r="J73">
-        <f>F74+F83+F92+F93+F94+F95+F108+F109+F110+F111+F122+F123+F105+F106+F107</f>
-        <v>31.55</v>
+        <f>F74+F83+F92+F93+F94+F95+F108+F109+F110+F111+F122+F123+F105+F106+F107+F124</f>
+        <v>38.299999999999997</v>
       </c>
       <c r="K73">
-        <f>E74+E83+E92+E93+E94+E95+E105+E106+E107+E108+E109+E110+E111+E122+E122+E122+E123</f>
+        <f>E74+E83+E92+E93+E94+E95+E105+E106+E107+E108+E109+E110+E111+E122+E122+E122+E123+E124</f>
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
@@ -3606,7 +3627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>12</v>
       </c>
@@ -3635,7 +3656,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
@@ -3662,7 +3683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
@@ -3691,7 +3712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
@@ -3720,7 +3741,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -3736,7 +3757,7 @@
       </c>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>13</v>
       </c>
@@ -3752,7 +3773,7 @@
       </c>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -3766,7 +3787,7 @@
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
     </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
@@ -3784,7 +3805,7 @@
       </c>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
@@ -3802,7 +3823,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>14</v>
       </c>
@@ -3816,7 +3837,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -3830,7 +3851,7 @@
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
     </row>
-    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
@@ -3844,7 +3865,7 @@
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
     </row>
-    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="36" t="s">
         <v>14</v>
       </c>
@@ -3862,7 +3883,7 @@
       </c>
       <c r="G87" s="37"/>
     </row>
-    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
@@ -3880,7 +3901,7 @@
       </c>
       <c r="G88" s="49"/>
     </row>
-    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>12</v>
       </c>
@@ -3898,7 +3919,7 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>12</v>
       </c>
@@ -3916,7 +3937,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>13</v>
       </c>
@@ -3934,7 +3955,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
@@ -3952,7 +3973,7 @@
       </c>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
@@ -3970,7 +3991,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -3988,7 +4009,7 @@
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
@@ -4006,7 +4027,7 @@
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="40" t="s">
         <v>15</v>
       </c>
@@ -4024,7 +4045,7 @@
       </c>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
@@ -4042,7 +4063,7 @@
       </c>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="37" t="s">
         <v>150</v>
       </c>
@@ -4056,7 +4077,7 @@
       <c r="F98" s="37"/>
       <c r="G98" s="11"/>
     </row>
-    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
         <v>12</v>
       </c>
@@ -4074,7 +4095,7 @@
       </c>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
         <v>12</v>
       </c>
@@ -4090,7 +4111,7 @@
       </c>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="40" t="s">
         <v>15</v>
       </c>
@@ -4108,7 +4129,7 @@
       </c>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
         <v>13</v>
       </c>
@@ -4124,7 +4145,7 @@
       </c>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
         <v>13</v>
       </c>
@@ -4142,7 +4163,7 @@
       </c>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
         <v>13</v>
       </c>
@@ -4160,7 +4181,7 @@
       </c>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="42" t="s">
         <v>9</v>
       </c>
@@ -4178,7 +4199,7 @@
       </c>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="42" t="s">
         <v>9</v>
       </c>
@@ -4196,7 +4217,7 @@
       </c>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="42" t="s">
         <v>9</v>
       </c>
@@ -4214,7 +4235,7 @@
       </c>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="42" t="s">
         <v>9</v>
       </c>
@@ -4232,7 +4253,7 @@
       </c>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="42" t="s">
         <v>9</v>
       </c>
@@ -4245,10 +4266,12 @@
       <c r="E109" s="34">
         <v>15</v>
       </c>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-    </row>
-    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F109" s="34">
+        <v>6</v>
+      </c>
+      <c r="G109" s="11"/>
+    </row>
+    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="42" t="s">
         <v>9</v>
       </c>
@@ -4266,7 +4289,7 @@
       </c>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="42" t="s">
         <v>9</v>
       </c>
@@ -4284,7 +4307,7 @@
       </c>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="43" t="s">
         <v>14</v>
       </c>
@@ -4298,7 +4321,7 @@
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
     </row>
-    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="44" t="s">
         <v>14</v>
       </c>
@@ -4312,7 +4335,7 @@
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
     </row>
-    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="44" t="s">
         <v>14</v>
       </c>
@@ -4326,7 +4349,7 @@
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
     </row>
-    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
         <v>12</v>
       </c>
@@ -4344,7 +4367,7 @@
       </c>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
         <v>12</v>
       </c>
@@ -4358,7 +4381,7 @@
       <c r="F116" s="34"/>
       <c r="G116" s="34"/>
     </row>
-    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
         <v>12</v>
       </c>
@@ -4372,7 +4395,7 @@
       <c r="F117" s="34"/>
       <c r="G117" s="34"/>
     </row>
-    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="45" t="s">
         <v>13</v>
       </c>
@@ -4390,7 +4413,7 @@
       </c>
       <c r="G118" s="11"/>
     </row>
-    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="45" t="s">
         <v>13</v>
       </c>
@@ -4408,7 +4431,7 @@
       </c>
       <c r="G119" s="11"/>
     </row>
-    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="45" t="s">
         <v>13</v>
       </c>
@@ -4424,7 +4447,7 @@
       </c>
       <c r="G120" s="11"/>
     </row>
-    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
         <v>16</v>
       </c>
@@ -4432,7 +4455,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="4" t="s">
         <v>9</v>
       </c>
@@ -4450,7 +4473,7 @@
       </c>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
         <v>9</v>
       </c>
@@ -4465,6 +4488,24 @@
       </c>
       <c r="F123" s="34"/>
       <c r="G123" s="48"/>
+    </row>
+    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="D124" s="37">
+        <v>48</v>
+      </c>
+      <c r="E124" s="37">
+        <v>0</v>
+      </c>
+      <c r="F124" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="G124" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4501,17 +4542,17 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>91</v>
       </c>
@@ -4541,7 +4582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4570,7 +4611,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -4591,7 +4632,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -4614,7 +4655,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -4629,7 +4670,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -4648,7 +4689,7 @@
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -4671,7 +4712,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -4686,7 +4727,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -4709,7 +4750,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -4724,7 +4765,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -4739,7 +4780,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -4754,7 +4795,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -4769,7 +4810,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -4784,7 +4825,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -4799,7 +4840,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -4814,7 +4855,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -4829,7 +4870,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -4850,7 +4891,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -4871,7 +4912,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -4888,7 +4929,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -4909,7 +4950,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -4924,7 +4965,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -4939,7 +4980,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -4960,7 +5001,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -4975,7 +5016,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -4998,7 +5039,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5013,7 +5054,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5036,7 +5077,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5051,7 +5092,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5066,7 +5107,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5089,7 +5130,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5110,7 +5151,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5131,7 +5172,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5152,7 +5193,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5167,7 +5208,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5182,7 +5223,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5205,7 +5246,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5220,7 +5261,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5235,7 +5276,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5256,7 +5297,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5279,7 +5320,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5302,7 +5343,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5325,7 +5366,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5348,7 +5389,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5369,7 +5410,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5384,7 +5425,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5405,7 +5446,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -5428,7 +5469,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>48</v>
       </c>
@@ -5451,12 +5492,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5669,17 +5709,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5704,18 +5754,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BB8567-6F06-4950-AB7B-1FEC9058AE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DD6A21-BA9A-418A-A309-B5C7A3BD7EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,6 @@
   <authors>
     <author>tc={9371C6CE-05AE-48D9-9CC4-7BBBBF016020}</author>
     <author>tc={779B0B16-BA1A-4FB6-BFB9-BA670422C61C}</author>
-    <author>tc={DCADFB7B-A4CD-4265-8258-B2317A485A47}</author>
   </authors>
   <commentList>
     <comment ref="C98" authorId="0" shapeId="0" xr:uid="{9371C6CE-05AE-48D9-9CC4-7BBBBF016020}">
@@ -60,14 +59,6 @@
      (Un comando para instalar y otro para arrancar)</t>
       </text>
     </comment>
-    <comment ref="C124" authorId="2" shapeId="0" xr:uid="{DCADFB7B-A4CD-4265-8258-B2317A485A47}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-     (Un comando para instalar y otro para arrancar)</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -606,7 +597,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -679,12 +670,6 @@
       <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -2092,9 +2077,6 @@
   <threadedComment ref="C99" dT="2023-10-19T08:57:35.81" personId="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" id="{779B0B16-BA1A-4FB6-BFB9-BA670422C61C}">
     <text xml:space="preserve"> (Un comando para instalar y otro para arrancar)</text>
   </threadedComment>
-  <threadedComment ref="C124" dT="2023-10-19T08:57:35.81" personId="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" id="{DCADFB7B-A4CD-4265-8258-B2317A485A47}">
-    <text xml:space="preserve"> (Un comando para instalar y otro para arrancar)</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2105,8 +2087,8 @@
   </sheetPr>
   <dimension ref="A2:P124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3594,7 +3576,7 @@
         <v>38.299999999999997</v>
       </c>
       <c r="K73">
-        <f>E74+E83+E92+E93+E94+E95+E105+E106+E107+E108+E109+E110+E111+E122+E122+E122+E123+E124</f>
+        <f>E74+E83+E92+E93+E94+E95+E105+E106+E107+E108+E109+E110+E111+E122+E122+E122+E123</f>
         <v>45</v>
       </c>
     </row>

--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golro\Documents\Universidad\año 3\primer cuatrimestre\IngenieriaDelSoftware\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DD6A21-BA9A-418A-A309-B5C7A3BD7EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C687007-C717-4900-848A-DE514E225E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="176">
   <si>
     <t>Nombre</t>
   </si>
@@ -588,6 +588,12 @@
   </si>
   <si>
     <t>Arrancar la aplicación con render</t>
+  </si>
+  <si>
+    <t>varios metodos de bbdd</t>
+  </si>
+  <si>
+    <t>Docker</t>
   </si>
 </sst>
 </file>
@@ -673,7 +679,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,6 +804,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -929,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1067,6 +1079,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2085,25 +2100,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P124"/>
+  <dimension ref="A2:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="G58" zoomScale="140" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.26953125" customWidth="1"/>
-    <col min="11" max="11" width="35.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.7265625" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.52734375" customWidth="1"/>
+    <col min="5" max="5" width="13.703125" customWidth="1"/>
+    <col min="7" max="7" width="53.46875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.29296875" customWidth="1"/>
+    <col min="11" max="11" width="35.46875" customWidth="1"/>
+    <col min="12" max="12" width="26.703125" customWidth="1"/>
+    <col min="16" max="16" width="17.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +2144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2138,11 +2153,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E995)</f>
-        <v>247.2</v>
+        <v>251.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>320.46999999999997</v>
+        <v>325.96999999999997</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2151,7 +2166,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="50" t="s">
         <v>8</v>
       </c>
@@ -2165,7 +2180,7 @@
       </c>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="52"/>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
@@ -2178,7 +2193,7 @@
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2204,7 +2219,7 @@
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2225,7 +2240,7 @@
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2246,7 +2261,7 @@
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -2271,7 +2286,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
@@ -2289,7 +2304,7 @@
       <c r="J10" s="60"/>
       <c r="K10" s="58"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2309,7 +2324,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2332,7 +2347,7 @@
         <v>44.85</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2350,7 +2365,7 @@
       <c r="J13" s="63"/>
       <c r="K13" s="58"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2368,7 +2383,7 @@
       <c r="J14" s="64"/>
       <c r="K14" s="58"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -2391,7 +2406,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2409,7 +2424,7 @@
       <c r="J16" s="66"/>
       <c r="K16" s="58"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2427,7 +2442,7 @@
       <c r="J17" s="67"/>
       <c r="K17" s="58"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -2449,10 +2464,10 @@
       </c>
       <c r="K18" s="58">
         <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+F79+F82+F81+J78</f>
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35.75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -2473,7 +2488,7 @@
       <c r="J19" s="69"/>
       <c r="K19" s="58"/>
     </row>
-    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2493,7 +2508,7 @@
       <c r="J20" s="69"/>
       <c r="K20" s="58"/>
     </row>
-    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2511,7 +2526,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2534,7 +2549,7 @@
       <c r="K22" s="70"/>
       <c r="L22" s="70"/>
     </row>
-    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2552,7 +2567,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2570,7 +2585,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2588,7 +2603,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2606,7 +2621,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2624,7 +2639,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2642,7 +2657,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2660,7 +2675,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2678,7 +2693,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2695,7 +2710,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2713,7 +2728,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2729,7 +2744,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2747,7 +2762,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2765,7 +2780,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2783,7 +2798,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2801,7 +2816,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2819,7 +2834,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2837,7 +2852,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2855,7 +2870,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B41" s="50" t="s">
         <v>36</v>
       </c>
@@ -2865,7 +2880,7 @@
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
     </row>
-    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B42" s="52"/>
       <c r="C42" s="53"/>
       <c r="D42" s="53"/>
@@ -2873,7 +2888,7 @@
       <c r="F42" s="53"/>
       <c r="G42" s="53"/>
     </row>
-    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2891,7 +2906,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2909,7 +2924,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -2927,7 +2942,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2945,7 +2960,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -2963,7 +2978,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -2981,7 +2996,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3008,7 +3023,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3037,7 +3052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3066,7 +3081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3095,7 +3110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3124,7 +3139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3153,7 +3168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3180,7 +3195,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3198,7 +3213,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3216,7 +3231,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3243,7 +3258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3272,7 +3287,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3301,7 +3316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3328,7 +3343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="4" t="s">
         <v>9</v>
       </c>
@@ -3357,7 +3372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
@@ -3386,7 +3401,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
@@ -3415,7 +3430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="4" t="s">
         <v>9</v>
       </c>
@@ -3433,7 +3448,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
@@ -3452,7 +3467,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
@@ -3470,7 +3485,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -3488,7 +3503,7 @@
       </c>
       <c r="G68" s="26"/>
     </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -3506,7 +3521,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -3524,7 +3539,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3542,7 +3557,7 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="50" t="s">
         <v>67</v>
       </c>
@@ -3561,7 +3576,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="52"/>
       <c r="C73" s="53"/>
       <c r="D73" s="53"/>
@@ -3580,7 +3595,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
@@ -3609,7 +3624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="5" t="s">
         <v>12</v>
       </c>
@@ -3638,7 +3653,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
@@ -3665,7 +3680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
@@ -3694,7 +3709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
@@ -3715,15 +3730,15 @@
         <v>16</v>
       </c>
       <c r="J78">
-        <f>F79+F81+F82+F97+F121</f>
-        <v>7</v>
+        <f>F79+F81+F82+F97+F121+F125+F126</f>
+        <v>12.5</v>
       </c>
       <c r="K78">
         <f>E79+E82+E81+E97+E121</f>
         <v>12.5</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -3739,7 +3754,7 @@
       </c>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="6" t="s">
         <v>13</v>
       </c>
@@ -3755,7 +3770,7 @@
       </c>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -3769,7 +3784,7 @@
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
     </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
@@ -3787,7 +3802,7 @@
       </c>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
@@ -3805,7 +3820,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="8" t="s">
         <v>14</v>
       </c>
@@ -3819,7 +3834,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -3833,7 +3848,7 @@
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
     </row>
-    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
@@ -3847,7 +3862,7 @@
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
     </row>
-    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="36" t="s">
         <v>14</v>
       </c>
@@ -3865,7 +3880,7 @@
       </c>
       <c r="G87" s="37"/>
     </row>
-    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
@@ -3883,7 +3898,7 @@
       </c>
       <c r="G88" s="49"/>
     </row>
-    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="5" t="s">
         <v>12</v>
       </c>
@@ -3901,7 +3916,7 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="5" t="s">
         <v>12</v>
       </c>
@@ -3919,7 +3934,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="6" t="s">
         <v>13</v>
       </c>
@@ -3937,7 +3952,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
@@ -3955,7 +3970,7 @@
       </c>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
@@ -3973,7 +3988,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -3991,7 +4006,7 @@
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
@@ -4009,7 +4024,7 @@
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="40" t="s">
         <v>15</v>
       </c>
@@ -4027,7 +4042,7 @@
       </c>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
@@ -4045,7 +4060,7 @@
       </c>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="37" t="s">
         <v>150</v>
       </c>
@@ -4059,7 +4074,7 @@
       <c r="F98" s="37"/>
       <c r="G98" s="11"/>
     </row>
-    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B99" s="5" t="s">
         <v>12</v>
       </c>
@@ -4077,7 +4092,7 @@
       </c>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="5" t="s">
         <v>12</v>
       </c>
@@ -4093,7 +4108,7 @@
       </c>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="40" t="s">
         <v>15</v>
       </c>
@@ -4111,7 +4126,7 @@
       </c>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="6" t="s">
         <v>13</v>
       </c>
@@ -4127,7 +4142,7 @@
       </c>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="6" t="s">
         <v>13</v>
       </c>
@@ -4145,7 +4160,7 @@
       </c>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="6" t="s">
         <v>13</v>
       </c>
@@ -4163,7 +4178,7 @@
       </c>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="42" t="s">
         <v>9</v>
       </c>
@@ -4181,7 +4196,7 @@
       </c>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="42" t="s">
         <v>9</v>
       </c>
@@ -4199,7 +4214,7 @@
       </c>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B107" s="42" t="s">
         <v>9</v>
       </c>
@@ -4217,7 +4232,7 @@
       </c>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="42" t="s">
         <v>9</v>
       </c>
@@ -4235,7 +4250,7 @@
       </c>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B109" s="42" t="s">
         <v>9</v>
       </c>
@@ -4253,7 +4268,7 @@
       </c>
       <c r="G109" s="11"/>
     </row>
-    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B110" s="42" t="s">
         <v>9</v>
       </c>
@@ -4271,7 +4286,7 @@
       </c>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B111" s="42" t="s">
         <v>9</v>
       </c>
@@ -4289,7 +4304,7 @@
       </c>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B112" s="43" t="s">
         <v>14</v>
       </c>
@@ -4303,7 +4318,7 @@
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
     </row>
-    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B113" s="44" t="s">
         <v>14</v>
       </c>
@@ -4317,7 +4332,7 @@
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
     </row>
-    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B114" s="44" t="s">
         <v>14</v>
       </c>
@@ -4331,7 +4346,7 @@
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
     </row>
-    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B115" s="5" t="s">
         <v>12</v>
       </c>
@@ -4349,7 +4364,7 @@
       </c>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B116" s="5" t="s">
         <v>12</v>
       </c>
@@ -4363,7 +4378,7 @@
       <c r="F116" s="34"/>
       <c r="G116" s="34"/>
     </row>
-    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B117" s="5" t="s">
         <v>12</v>
       </c>
@@ -4377,7 +4392,7 @@
       <c r="F117" s="34"/>
       <c r="G117" s="34"/>
     </row>
-    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B118" s="45" t="s">
         <v>13</v>
       </c>
@@ -4395,7 +4410,7 @@
       </c>
       <c r="G118" s="11"/>
     </row>
-    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B119" s="45" t="s">
         <v>13</v>
       </c>
@@ -4413,7 +4428,7 @@
       </c>
       <c r="G119" s="11"/>
     </row>
-    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B120" s="45" t="s">
         <v>13</v>
       </c>
@@ -4429,7 +4444,7 @@
       </c>
       <c r="G120" s="11"/>
     </row>
-    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B121" s="10" t="s">
         <v>16</v>
       </c>
@@ -4437,7 +4452,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B122" s="4" t="s">
         <v>9</v>
       </c>
@@ -4455,7 +4470,7 @@
       </c>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B123" s="4" t="s">
         <v>9</v>
       </c>
@@ -4471,7 +4486,7 @@
       <c r="F123" s="34"/>
       <c r="G123" s="48"/>
     </row>
-    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B124" s="4" t="s">
         <v>9</v>
       </c>
@@ -4488,6 +4503,33 @@
         <v>0.75</v>
       </c>
       <c r="G124" s="7"/>
+    </row>
+    <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B125" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="F125" s="71">
+        <v>2</v>
+      </c>
+      <c r="G125" s="7"/>
+    </row>
+    <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B126" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="F126">
+        <v>3.5</v>
+      </c>
+      <c r="G126" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4524,17 +4566,17 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.52734375" customWidth="1"/>
+    <col min="2" max="2" width="35.46875" customWidth="1"/>
+    <col min="3" max="3" width="27.29296875" customWidth="1"/>
+    <col min="4" max="4" width="10.29296875" customWidth="1"/>
+    <col min="7" max="7" width="17.46875" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>91</v>
       </c>
@@ -4564,7 +4606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4593,7 +4635,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -4614,7 +4656,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -4637,7 +4679,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -4652,7 +4694,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -4671,7 +4713,7 @@
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -4694,7 +4736,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -4709,7 +4751,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -4732,7 +4774,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -4747,7 +4789,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -4762,7 +4804,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -4777,7 +4819,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -4792,7 +4834,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -4807,7 +4849,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -4822,7 +4864,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -4837,7 +4879,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -4852,7 +4894,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -4873,7 +4915,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -4894,7 +4936,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -4911,7 +4953,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -4932,7 +4974,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -4947,7 +4989,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -4962,7 +5004,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -4983,7 +5025,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -4998,7 +5040,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5021,7 +5063,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5036,7 +5078,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5059,7 +5101,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5074,7 +5116,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5089,7 +5131,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5112,7 +5154,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5133,7 +5175,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5154,7 +5196,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5175,7 +5217,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5190,7 +5232,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5205,7 +5247,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5228,7 +5270,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5243,7 +5285,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5258,7 +5300,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5279,7 +5321,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5302,7 +5344,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5325,7 +5367,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5348,7 +5390,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5371,7 +5413,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5392,7 +5434,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5407,7 +5449,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5428,7 +5470,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -5451,7 +5493,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="38">
         <v>48</v>
       </c>
@@ -5474,11 +5516,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5691,27 +5734,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5736,9 +5769,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golro\Documents\Universidad\año 3\primer cuatrimestre\IngenieriaDelSoftware\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C687007-C717-4900-848A-DE514E225E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C331BC5-9918-490B-9A1C-2EC8DBC5FBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -941,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1016,6 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1079,9 +1080,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2102,23 +2100,23 @@
   </sheetPr>
   <dimension ref="A2:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G58" zoomScale="140" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.52734375" customWidth="1"/>
-    <col min="5" max="5" width="13.703125" customWidth="1"/>
-    <col min="7" max="7" width="53.46875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.29296875" customWidth="1"/>
-    <col min="11" max="11" width="35.46875" customWidth="1"/>
-    <col min="12" max="12" width="26.703125" customWidth="1"/>
-    <col min="16" max="16" width="17.46875" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2144,7 +2142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2153,47 +2151,47 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E995)</f>
-        <v>251.2</v>
+        <v>254.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>325.96999999999997</v>
+        <v>327.46999999999997</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="54">
+      <c r="K3" s="55">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73</f>
         <v>87.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="50" t="s">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="54"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2208,18 +2206,18 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="59">
         <f>F7+F13+F20+F43+F45+F47+F46+J76+F75+F89+F90+F99+F100+F115+F116+F117</f>
-        <v>59.7</v>
+        <v>62.7</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2234,13 +2232,13 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="58"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2255,13 +2253,13 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="59"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -2276,17 +2274,17 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="59">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74</f>
         <v>79.27000000000001</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
@@ -2301,10 +2299,10 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="58"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J10" s="61"/>
+      <c r="K10" s="59"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2319,12 +2317,12 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="58"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2339,15 +2337,15 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="58">
+      <c r="K12" s="59">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77</f>
         <v>44.85</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2362,10 +2360,10 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="58"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J13" s="64"/>
+      <c r="K13" s="59"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2380,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="58"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J14" s="65"/>
+      <c r="K14" s="59"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -2398,15 +2396,15 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="65" t="s">
+      <c r="J15" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="59">
         <f>F10+F16+F39+F40+F49+F50+F51+J75</f>
         <v>36.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2421,10 +2419,10 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="58"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J16" s="67"/>
+      <c r="K16" s="59"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2439,10 +2437,10 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="58"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J17" s="68"/>
+      <c r="K17" s="59"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -2459,15 +2457,15 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="68" t="s">
+      <c r="J18" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="58">
+      <c r="K18" s="59">
         <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+F79+F82+F81+J78</f>
         <v>35.75</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -2485,10 +2483,10 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="58"/>
-    </row>
-    <row r="20" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="J19" s="70"/>
+      <c r="K19" s="59"/>
+    </row>
+    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2505,10 +2503,10 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="58"/>
-    </row>
-    <row r="21" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="J20" s="70"/>
+      <c r="K20" s="59"/>
+    </row>
+    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2526,7 +2524,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2543,13 +2541,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="70" t="s">
+      <c r="J22" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-    </row>
-    <row r="23" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+    </row>
+    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2567,7 +2565,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2585,7 +2583,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2603,7 +2601,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2621,7 +2619,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2639,7 +2637,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2657,7 +2655,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2675,7 +2673,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2693,7 +2691,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2710,7 +2708,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2728,7 +2726,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2744,7 +2742,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2762,7 +2760,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2780,7 +2778,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2798,7 +2796,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2816,7 +2814,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2834,7 +2832,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2852,7 +2850,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2870,25 +2868,25 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
-      <c r="B41" s="50" t="s">
+    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B41" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-    </row>
-    <row r="42" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
-      <c r="B42" s="52"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-    </row>
-    <row r="43" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+    </row>
+    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B42" s="53"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+    </row>
+    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2906,7 +2904,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2924,7 +2922,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -2942,7 +2940,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2960,7 +2958,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -2978,7 +2976,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -2996,7 +2994,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3023,7 +3021,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3052,7 +3050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3081,7 +3079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3110,7 +3108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3139,7 +3137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3168,7 +3166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3195,7 +3193,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3213,7 +3211,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3231,7 +3229,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3258,7 +3256,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3287,7 +3285,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3316,7 +3314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3343,7 +3341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>9</v>
       </c>
@@ -3372,7 +3370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
@@ -3401,7 +3399,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
@@ -3430,7 +3428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>9</v>
       </c>
@@ -3448,7 +3446,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
@@ -3467,7 +3465,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
@@ -3485,7 +3483,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -3503,7 +3501,7 @@
       </c>
       <c r="G68" s="26"/>
     </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -3521,7 +3519,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -3539,7 +3537,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3557,15 +3555,15 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="50" t="s">
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3576,13 +3574,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="52"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="53"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -3595,7 +3593,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
@@ -3624,7 +3622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>12</v>
       </c>
@@ -3653,7 +3651,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
@@ -3673,14 +3671,14 @@
       </c>
       <c r="J76">
         <f>F75+F89+F90+F99+F100+F115+F116+F117</f>
-        <v>14.1</v>
+        <v>15.6</v>
       </c>
       <c r="K76">
         <f>E75+E89+E90+E99+E100+E115+E116+E117</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
@@ -3709,7 +3707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
@@ -3738,7 +3736,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -3754,7 +3752,7 @@
       </c>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>13</v>
       </c>
@@ -3770,7 +3768,7 @@
       </c>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -3784,7 +3782,7 @@
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
     </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
@@ -3802,7 +3800,7 @@
       </c>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
@@ -3820,7 +3818,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>14</v>
       </c>
@@ -3834,7 +3832,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -3848,7 +3846,7 @@
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
     </row>
-    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
@@ -3862,7 +3860,7 @@
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
     </row>
-    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="36" t="s">
         <v>14</v>
       </c>
@@ -3880,7 +3878,7 @@
       </c>
       <c r="G87" s="37"/>
     </row>
-    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
@@ -3898,7 +3896,7 @@
       </c>
       <c r="G88" s="49"/>
     </row>
-    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>12</v>
       </c>
@@ -3916,7 +3914,7 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>12</v>
       </c>
@@ -3934,7 +3932,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>13</v>
       </c>
@@ -3952,7 +3950,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
@@ -3970,7 +3968,7 @@
       </c>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
@@ -3988,7 +3986,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4006,7 +4004,7 @@
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
@@ -4024,7 +4022,7 @@
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="40" t="s">
         <v>15</v>
       </c>
@@ -4042,7 +4040,7 @@
       </c>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
@@ -4060,7 +4058,7 @@
       </c>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="37" t="s">
         <v>150</v>
       </c>
@@ -4074,7 +4072,7 @@
       <c r="F98" s="37"/>
       <c r="G98" s="11"/>
     </row>
-    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
         <v>12</v>
       </c>
@@ -4092,7 +4090,7 @@
       </c>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
         <v>12</v>
       </c>
@@ -4108,7 +4106,7 @@
       </c>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="40" t="s">
         <v>15</v>
       </c>
@@ -4126,7 +4124,7 @@
       </c>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
         <v>13</v>
       </c>
@@ -4142,7 +4140,7 @@
       </c>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
         <v>13</v>
       </c>
@@ -4160,7 +4158,7 @@
       </c>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
         <v>13</v>
       </c>
@@ -4178,7 +4176,7 @@
       </c>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="42" t="s">
         <v>9</v>
       </c>
@@ -4196,7 +4194,7 @@
       </c>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="42" t="s">
         <v>9</v>
       </c>
@@ -4214,7 +4212,7 @@
       </c>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="42" t="s">
         <v>9</v>
       </c>
@@ -4232,7 +4230,7 @@
       </c>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="42" t="s">
         <v>9</v>
       </c>
@@ -4250,7 +4248,7 @@
       </c>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="42" t="s">
         <v>9</v>
       </c>
@@ -4268,7 +4266,7 @@
       </c>
       <c r="G109" s="11"/>
     </row>
-    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="42" t="s">
         <v>9</v>
       </c>
@@ -4286,7 +4284,7 @@
       </c>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="42" t="s">
         <v>9</v>
       </c>
@@ -4304,7 +4302,7 @@
       </c>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="43" t="s">
         <v>14</v>
       </c>
@@ -4318,7 +4316,7 @@
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
     </row>
-    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="44" t="s">
         <v>14</v>
       </c>
@@ -4332,7 +4330,7 @@
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
     </row>
-    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="44" t="s">
         <v>14</v>
       </c>
@@ -4346,7 +4344,7 @@
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
     </row>
-    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
         <v>12</v>
       </c>
@@ -4364,7 +4362,7 @@
       </c>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
         <v>12</v>
       </c>
@@ -4374,11 +4372,15 @@
       <c r="D116" s="34">
         <v>45</v>
       </c>
-      <c r="E116" s="34"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="34"/>
-    </row>
-    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E116" s="34">
+        <v>2</v>
+      </c>
+      <c r="F116" s="34">
+        <v>1</v>
+      </c>
+      <c r="G116" s="11"/>
+    </row>
+    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
         <v>12</v>
       </c>
@@ -4388,11 +4390,15 @@
       <c r="D117" s="34">
         <v>10</v>
       </c>
-      <c r="E117" s="34"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34"/>
-    </row>
-    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E117" s="34">
+        <v>1</v>
+      </c>
+      <c r="F117" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G117" s="11"/>
+    </row>
+    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="45" t="s">
         <v>13</v>
       </c>
@@ -4410,7 +4416,7 @@
       </c>
       <c r="G118" s="11"/>
     </row>
-    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="45" t="s">
         <v>13</v>
       </c>
@@ -4428,7 +4434,7 @@
       </c>
       <c r="G119" s="11"/>
     </row>
-    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="45" t="s">
         <v>13</v>
       </c>
@@ -4444,7 +4450,7 @@
       </c>
       <c r="G120" s="11"/>
     </row>
-    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
         <v>16</v>
       </c>
@@ -4452,7 +4458,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="4" t="s">
         <v>9</v>
       </c>
@@ -4470,7 +4476,7 @@
       </c>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
         <v>9</v>
       </c>
@@ -4486,7 +4492,7 @@
       <c r="F123" s="34"/>
       <c r="G123" s="48"/>
     </row>
-    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="4" t="s">
         <v>9</v>
       </c>
@@ -4504,23 +4510,23 @@
       </c>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C125" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="F125" s="71">
+      <c r="F125">
         <v>2</v>
       </c>
       <c r="G125" s="7"/>
     </row>
-    <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C126" s="72" t="s">
+      <c r="C126" s="47" t="s">
         <v>175</v>
       </c>
       <c r="E126">
@@ -4529,7 +4535,7 @@
       <c r="F126">
         <v>3.5</v>
       </c>
-      <c r="G126" s="73"/>
+      <c r="G126" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4566,17 +4572,17 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.52734375" customWidth="1"/>
-    <col min="2" max="2" width="35.46875" customWidth="1"/>
-    <col min="3" max="3" width="27.29296875" customWidth="1"/>
-    <col min="4" max="4" width="10.29296875" customWidth="1"/>
-    <col min="7" max="7" width="17.46875" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>91</v>
       </c>
@@ -4606,7 +4612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4635,7 +4641,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -4656,7 +4662,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -4679,7 +4685,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -4694,7 +4700,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -4713,7 +4719,7 @@
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -4736,7 +4742,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -4751,7 +4757,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -4774,7 +4780,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -4789,7 +4795,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -4804,7 +4810,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -4819,7 +4825,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -4834,7 +4840,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -4849,7 +4855,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -4864,7 +4870,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -4879,7 +4885,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -4894,7 +4900,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -4915,7 +4921,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -4936,7 +4942,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -4953,7 +4959,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -4974,7 +4980,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -4989,7 +4995,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5004,7 +5010,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5025,7 +5031,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5040,7 +5046,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5063,7 +5069,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5078,7 +5084,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5101,7 +5107,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5116,7 +5122,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5131,7 +5137,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5154,7 +5160,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5175,7 +5181,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5196,7 +5202,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5217,7 +5223,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5232,7 +5238,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5247,7 +5253,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5270,7 +5276,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5285,7 +5291,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5300,7 +5306,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5321,7 +5327,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5344,7 +5350,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5367,7 +5373,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5390,7 +5396,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5413,7 +5419,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5434,7 +5440,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5449,7 +5455,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5470,7 +5476,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -5493,7 +5499,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>48</v>
       </c>
@@ -5516,12 +5522,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5734,17 +5739,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5769,18 +5784,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C331BC5-9918-490B-9A1C-2EC8DBC5FBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F9E324-5F1E-4A30-894C-F2CC999A390C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -2100,8 +2100,8 @@
   </sheetPr>
   <dimension ref="A2:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>327.46999999999997</v>
+        <v>328.63</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="K9" s="59">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74</f>
-        <v>79.27000000000001</v>
+        <v>80.430000000000007</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="J74">
         <f>F80+F91+F102+F104+F103+F118+F119+F120</f>
-        <v>33.549999999999997</v>
+        <v>34.71</v>
       </c>
       <c r="K74">
         <f>E80+E91+E102+E103+E104+E118+E119+E120</f>
@@ -4412,7 +4412,7 @@
         <v>5</v>
       </c>
       <c r="F118" s="34">
-        <v>10.84</v>
+        <v>12</v>
       </c>
       <c r="G118" s="11"/>
     </row>
@@ -5522,11 +5522,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5739,27 +5740,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5784,9 +5775,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F9E324-5F1E-4A30-894C-F2CC999A390C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B929CD-9E96-4A08-B4EE-B1DABC2B1AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,9 +533,6 @@
     <t>Ajustes (pt. 2)</t>
   </si>
   <si>
-    <t>Mnesajes de victoria/Derrota/empate</t>
-  </si>
-  <si>
     <t>Hacer un juego multijugador (continuación)</t>
   </si>
   <si>
@@ -594,6 +591,9 @@
   </si>
   <si>
     <t>Docker</t>
+  </si>
+  <si>
+    <t>Mensajes de victoria/Derrota/empate</t>
   </si>
 </sst>
 </file>
@@ -2101,7 +2101,7 @@
   <dimension ref="A2:P126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>328.63</v>
+        <v>329.13</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="K9" s="59">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74</f>
-        <v>80.430000000000007</v>
+        <v>80.930000000000007</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="J74">
         <f>F80+F91+F102+F104+F103+F118+F119+F120</f>
-        <v>34.71</v>
+        <v>35.21</v>
       </c>
       <c r="K74">
         <f>E80+E91+E102+E103+E104+E118+E119+E120</f>
@@ -3764,7 +3764,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="34">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -4163,7 +4163,7 @@
         <v>13</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="D104" s="1">
         <v>39</v>
@@ -4181,7 +4181,7 @@
         <v>9</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D105" s="34" t="s">
         <v>11</v>
@@ -4199,7 +4199,7 @@
         <v>9</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D106" s="34" t="s">
         <v>11</v>
@@ -4217,7 +4217,7 @@
         <v>9</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D107" s="34" t="s">
         <v>11</v>
@@ -4235,7 +4235,7 @@
         <v>9</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D108" s="34" t="s">
         <v>11</v>
@@ -4271,7 +4271,7 @@
         <v>9</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D110" s="34" t="s">
         <v>11</v>
@@ -4289,7 +4289,7 @@
         <v>9</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D111" s="34" t="s">
         <v>11</v>
@@ -4307,7 +4307,7 @@
         <v>14</v>
       </c>
       <c r="C112" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D112" s="34">
         <v>23</v>
@@ -4321,7 +4321,7 @@
         <v>14</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D113" s="34" t="s">
         <v>11</v>
@@ -4335,7 +4335,7 @@
         <v>14</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D114" s="34" t="s">
         <v>11</v>
@@ -4349,7 +4349,7 @@
         <v>12</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D115" s="37">
         <v>29</v>
@@ -4367,7 +4367,7 @@
         <v>12</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D116" s="34">
         <v>45</v>
@@ -4385,7 +4385,7 @@
         <v>12</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D117" s="34">
         <v>10</v>
@@ -4403,7 +4403,7 @@
         <v>13</v>
       </c>
       <c r="C118" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D118" s="34">
         <v>37</v>
@@ -4421,7 +4421,7 @@
         <v>13</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D119" s="34">
         <v>12</v>
@@ -4439,7 +4439,7 @@
         <v>13</v>
       </c>
       <c r="C120" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D120" s="46"/>
       <c r="E120" s="46">
@@ -4463,7 +4463,7 @@
         <v>9</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D122" s="34" t="s">
         <v>11</v>
@@ -4481,7 +4481,7 @@
         <v>9</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D123" s="34" t="s">
         <v>11</v>
@@ -4497,7 +4497,7 @@
         <v>9</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D124" s="37">
         <v>48</v>
@@ -4515,7 +4515,7 @@
         <v>16</v>
       </c>
       <c r="C125" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F125">
         <v>2</v>
@@ -4527,7 +4527,7 @@
         <v>16</v>
       </c>
       <c r="C126" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E126">
         <v>4</v>
@@ -5522,12 +5522,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5740,17 +5739,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5775,18 +5784,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 3ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 3ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B929CD-9E96-4A08-B4EE-B1DABC2B1AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C50509B-38FD-4644-9EE1-99AE0912CA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="181">
   <si>
     <t>Nombre</t>
   </si>
@@ -594,6 +594,21 @@
   </si>
   <si>
     <t>Mensajes de victoria/Derrota/empate</t>
+  </si>
+  <si>
+    <t>DEMO4</t>
+  </si>
+  <si>
+    <t>Dados Craps Mejora Visual</t>
+  </si>
+  <si>
+    <t>Apoyo</t>
+  </si>
+  <si>
+    <t>Arreglar Toolbar</t>
+  </si>
+  <si>
+    <t>Ruleta</t>
   </si>
 </sst>
 </file>
@@ -813,7 +828,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -937,11 +952,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1080,6 +1117,20 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1619,7 +1670,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1787,7 +1838,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2098,10 +2149,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P126"/>
+  <dimension ref="A2:P136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J132" sqref="J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4537,8 +4588,148 @@
       </c>
       <c r="G126" s="50"/>
     </row>
+    <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C127" s="52"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
+    </row>
+    <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="72"/>
+      <c r="C128" s="73"/>
+      <c r="D128" s="73"/>
+      <c r="E128" s="73"/>
+      <c r="F128" s="73"/>
+      <c r="G128" s="73"/>
+    </row>
+    <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="I129" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="J129" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="K129" s="81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="I130" s="80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="I131" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="I132" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="I133" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="I134" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="I135" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="B127:G128"/>
     <mergeCell ref="B72:G73"/>
     <mergeCell ref="B41:G42"/>
     <mergeCell ref="K3:K5"/>
@@ -5522,11 +5713,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5739,27 +5931,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5784,9 +5966,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>